--- a/Data/EC/NIT-9007382260.xlsx
+++ b/Data/EC/NIT-9007382260.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D19EF85-17E2-40F4-AB26-8DD2527F8DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4249E6FA-95D4-491A-8593-AD36CA2F4DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BE7FDF1E-6441-42D0-8548-4960DF0E762A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F01D48E9-787F-487E-9354-73790845C846}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2032" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2048" uniqueCount="89">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,37 +65,91 @@
     <t>CC</t>
   </si>
   <si>
-    <t>1221966909</t>
+    <t>1128047733</t>
   </si>
   <si>
-    <t>LIAN DAVID TORRES JIMENEZ</t>
+    <t>ALEJANDRO SEGOVIA MONTES</t>
   </si>
   <si>
-    <t>2007</t>
+    <t>2303</t>
   </si>
   <si>
-    <t>1221972358</t>
+    <t>2302</t>
   </si>
   <si>
-    <t>ANDRES FABIAN GARCIA SALAS</t>
+    <t>2301</t>
   </si>
   <si>
-    <t>1051359850</t>
+    <t>2212</t>
   </si>
   <si>
-    <t>JOSE MANUEL ORTIZ FONSECA</t>
+    <t>2211</t>
   </si>
   <si>
-    <t>1070621336</t>
+    <t>2210</t>
   </si>
   <si>
-    <t>PABLO SANTIAGO HOYOS RIVERA</t>
+    <t>2209</t>
   </si>
   <si>
-    <t>73581015</t>
+    <t>2208</t>
   </si>
   <si>
-    <t>PEDRO MEJIA CARO</t>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
   </si>
   <si>
     <t>8854970</t>
@@ -104,16 +158,52 @@
     <t>JORGE ANTONIO ESCORCIA PACHECO</t>
   </si>
   <si>
-    <t>1022407082</t>
+    <t>2012</t>
   </si>
   <si>
-    <t>BRAYAN MAURICIO PEREZ GARZON</t>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>1041974552</t>
+  </si>
+  <si>
+    <t>GLORIA ESTHER GOURIYU</t>
   </si>
   <si>
     <t>1143380887</t>
   </si>
   <si>
     <t>IVAN DARIO DE LA ROSA MARTINEZ</t>
+  </si>
+  <si>
+    <t>1128044650</t>
+  </si>
+  <si>
+    <t>DAYRON DE JESUS HERRERA BOHORQUEZ</t>
+  </si>
+  <si>
+    <t>84455015</t>
+  </si>
+  <si>
+    <t>ALBENIS FLOREZ VERJEL</t>
+  </si>
+  <si>
+    <t>73581015</t>
+  </si>
+  <si>
+    <t>PEDRO MEJIA CARO</t>
   </si>
   <si>
     <t>1007980886</t>
@@ -134,10 +224,22 @@
     <t>WILMER NORVEY ARANGUREN GOMEZ</t>
   </si>
   <si>
-    <t>84455015</t>
+    <t>1012457704</t>
   </si>
   <si>
-    <t>ALBENIS FLOREZ VERJEL</t>
+    <t>JORGE ANDRES TRUJILLO SALAZAR</t>
+  </si>
+  <si>
+    <t>1221972358</t>
+  </si>
+  <si>
+    <t>ANDRES FABIAN GARCIA SALAS</t>
+  </si>
+  <si>
+    <t>1051359850</t>
+  </si>
+  <si>
+    <t>JOSE MANUEL ORTIZ FONSECA</t>
   </si>
   <si>
     <t>1083031517</t>
@@ -146,124 +248,28 @@
     <t>LUIS DIEGO ROMERO ARRIETA</t>
   </si>
   <si>
-    <t>1012457704</t>
+    <t>1221966909</t>
   </si>
   <si>
-    <t>JORGE ANDRES TRUJILLO SALAZAR</t>
+    <t>LIAN DAVID TORRES JIMENEZ</t>
   </si>
   <si>
-    <t>2008</t>
+    <t>1070621336</t>
   </si>
   <si>
-    <t>2009</t>
+    <t>PABLO SANTIAGO HOYOS RIVERA</t>
   </si>
   <si>
-    <t>2010</t>
+    <t>1022407082</t>
   </si>
   <si>
-    <t>2011</t>
+    <t>BRAYAN MAURICIO PEREZ GARZON</t>
   </si>
   <si>
-    <t>1041974552</t>
+    <t>1002245785</t>
   </si>
   <si>
-    <t>GLORIA ESTHER GOURIYU</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>1128047733</t>
-  </si>
-  <si>
-    <t>ALEJANDRO SEGOVIA MONTES</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>1128044650</t>
-  </si>
-  <si>
-    <t>DAYRON DE JESUS HERRERA BOHORQUEZ</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
+    <t>JANNIA SALGADO BENITEZ</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -677,7 +683,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{201DACCD-D37C-5459-A640-BCE8DC72E033}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F7F7187-FB62-D84C-0994-5B7D90CAC4D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1028,8 +1034,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD390C8-78F6-46A8-B426-816E0CF71EDA}">
-  <dimension ref="B2:J524"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4C836BB-46AD-4E25-98EA-935C37D7C723}">
+  <dimension ref="B2:J528"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1053,7 +1059,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1098,7 +1104,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1130,12 +1136,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>17626221</v>
+        <v>17783554</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1146,14 +1152,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C13" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F13" s="5">
         <v>33</v>
@@ -1183,13 +1189,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1206,7 +1212,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>35112</v>
+        <v>32771</v>
       </c>
       <c r="G16" s="18">
         <v>877803</v>
@@ -1220,13 +1226,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>35112</v>
@@ -1243,13 +1249,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
         <v>35112</v>
@@ -1266,13 +1272,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
         <v>35112</v>
@@ -1289,13 +1295,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
         <v>35112</v>
@@ -1312,13 +1318,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
         <v>35112</v>
@@ -1335,13 +1341,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
         <v>35112</v>
@@ -1358,13 +1364,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
         <v>35112</v>
@@ -1381,13 +1387,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
         <v>35112</v>
@@ -1404,13 +1410,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
         <v>35112</v>
@@ -1427,13 +1433,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
         <v>35112</v>
@@ -1450,13 +1456,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
         <v>35112</v>
@@ -1473,13 +1479,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
         <v>35112</v>
@@ -1496,13 +1502,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
         <v>35112</v>
@@ -1519,13 +1525,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
         <v>35112</v>
@@ -1542,13 +1548,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
         <v>35112</v>
@@ -1565,13 +1571,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="16" t="s">
         <v>27</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>38</v>
       </c>
       <c r="F32" s="18">
         <v>35112</v>
@@ -1588,13 +1594,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F33" s="18">
         <v>35112</v>
@@ -1611,13 +1617,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F34" s="18">
         <v>35112</v>
@@ -1634,13 +1640,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F35" s="18">
         <v>35112</v>
@@ -1657,13 +1663,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F36" s="18">
         <v>35112</v>
@@ -1680,13 +1686,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F37" s="18">
         <v>35112</v>
@@ -1709,7 +1715,7 @@
         <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F38" s="18">
         <v>35112</v>
@@ -1726,13 +1732,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F39" s="18">
         <v>35112</v>
@@ -1749,13 +1755,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F40" s="18">
         <v>35112</v>
@@ -1772,13 +1778,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F41" s="18">
         <v>35112</v>
@@ -1795,13 +1801,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F42" s="18">
         <v>35112</v>
@@ -1818,16 +1824,16 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="F43" s="18">
-        <v>35112</v>
+        <v>32771</v>
       </c>
       <c r="G43" s="18">
         <v>877803</v>
@@ -1841,13 +1847,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F44" s="18">
         <v>35112</v>
@@ -1864,13 +1870,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="F45" s="18">
         <v>35112</v>
@@ -1887,13 +1893,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="F46" s="18">
         <v>35112</v>
@@ -1910,13 +1916,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D47" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E47" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>39</v>
       </c>
       <c r="F47" s="18">
         <v>35112</v>
@@ -1933,13 +1939,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E48" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>39</v>
       </c>
       <c r="F48" s="18">
         <v>35112</v>
@@ -1956,13 +1962,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="F49" s="18">
         <v>35112</v>
@@ -1979,13 +1985,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="F50" s="18">
         <v>35112</v>
@@ -2002,13 +2008,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="F51" s="18">
         <v>35112</v>
@@ -2025,13 +2031,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="F52" s="18">
         <v>35112</v>
@@ -2048,13 +2054,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="F53" s="18">
         <v>35112</v>
@@ -2071,13 +2077,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="F54" s="18">
         <v>35112</v>
@@ -2094,13 +2100,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="F55" s="18">
         <v>35112</v>
@@ -2117,13 +2123,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="F56" s="18">
         <v>35112</v>
@@ -2140,13 +2146,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F57" s="18">
         <v>35112</v>
@@ -2163,13 +2169,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="F58" s="18">
         <v>35112</v>
@@ -2186,13 +2192,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F59" s="18">
         <v>35112</v>
@@ -2209,13 +2215,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F60" s="18">
         <v>35112</v>
@@ -2232,13 +2238,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F61" s="18">
         <v>35112</v>
@@ -2255,13 +2261,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F62" s="18">
         <v>35112</v>
@@ -2278,13 +2284,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F63" s="18">
         <v>35112</v>
@@ -2301,13 +2307,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F64" s="18">
         <v>35112</v>
@@ -2324,13 +2330,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F65" s="18">
         <v>35112</v>
@@ -2347,13 +2353,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F66" s="18">
         <v>35112</v>
@@ -2370,13 +2376,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F67" s="18">
         <v>35112</v>
@@ -2393,13 +2399,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F68" s="18">
         <v>35112</v>
@@ -2416,13 +2422,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F69" s="18">
         <v>35112</v>
@@ -2439,10 +2445,10 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E70" s="16" t="s">
         <v>40</v>
@@ -2462,13 +2468,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F71" s="18">
         <v>35112</v>
@@ -2485,13 +2491,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F72" s="18">
         <v>35112</v>
@@ -2508,13 +2514,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F73" s="18">
         <v>35112</v>
@@ -2531,13 +2537,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F74" s="18">
         <v>35112</v>
@@ -2554,13 +2560,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F75" s="18">
         <v>35112</v>
@@ -2577,10 +2583,10 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="E76" s="16" t="s">
         <v>41</v>
@@ -2600,16 +2606,16 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="F77" s="18">
-        <v>35112</v>
+        <v>32771</v>
       </c>
       <c r="G77" s="18">
         <v>877803</v>
@@ -2623,13 +2629,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F78" s="18">
         <v>35112</v>
@@ -2646,13 +2652,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="F79" s="18">
         <v>35112</v>
@@ -2669,13 +2675,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F80" s="18">
         <v>35112</v>
@@ -2692,13 +2698,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="F81" s="18">
         <v>35112</v>
@@ -2715,13 +2721,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="F82" s="18">
         <v>35112</v>
@@ -2738,13 +2744,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F83" s="18">
         <v>35112</v>
@@ -2761,13 +2767,13 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="F84" s="18">
         <v>35112</v>
@@ -2784,13 +2790,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="F85" s="18">
         <v>35112</v>
@@ -2807,13 +2813,13 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D86" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E86" s="16" t="s">
         <v>20</v>
-      </c>
-      <c r="D86" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E86" s="16" t="s">
-        <v>44</v>
       </c>
       <c r="F86" s="18">
         <v>35112</v>
@@ -2830,13 +2836,13 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="F87" s="18">
         <v>35112</v>
@@ -2853,13 +2859,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="F88" s="18">
         <v>35112</v>
@@ -2876,13 +2882,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="F89" s="18">
         <v>35112</v>
@@ -2899,13 +2905,13 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D90" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E90" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="D90" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E90" s="16" t="s">
-        <v>44</v>
       </c>
       <c r="F90" s="18">
         <v>35112</v>
@@ -2922,13 +2928,13 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="F91" s="18">
         <v>35112</v>
@@ -2945,13 +2951,13 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="F92" s="18">
         <v>35112</v>
@@ -2968,13 +2974,13 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F93" s="18">
         <v>35112</v>
@@ -2991,13 +2997,13 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F94" s="18">
         <v>35112</v>
@@ -3014,13 +3020,13 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F95" s="18">
         <v>35112</v>
@@ -3037,13 +3043,13 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F96" s="18">
         <v>35112</v>
@@ -3060,13 +3066,13 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F97" s="18">
         <v>35112</v>
@@ -3083,13 +3089,13 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F98" s="18">
         <v>35112</v>
@@ -3106,13 +3112,13 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F99" s="18">
         <v>35112</v>
@@ -3129,13 +3135,13 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F100" s="18">
         <v>35112</v>
@@ -3152,13 +3158,13 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F101" s="18">
         <v>35112</v>
@@ -3175,13 +3181,13 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F102" s="18">
         <v>35112</v>
@@ -3198,13 +3204,13 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F103" s="18">
         <v>35112</v>
@@ -3221,13 +3227,13 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F104" s="18">
         <v>35112</v>
@@ -3244,13 +3250,13 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F105" s="18">
         <v>35112</v>
@@ -3267,13 +3273,13 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F106" s="18">
         <v>35112</v>
@@ -3290,13 +3296,13 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F107" s="18">
         <v>35112</v>
@@ -3313,13 +3319,13 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F108" s="18">
         <v>35112</v>
@@ -3336,10 +3342,10 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="E109" s="16" t="s">
         <v>45</v>
@@ -3359,16 +3365,16 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="F110" s="18">
-        <v>35112</v>
+        <v>32771</v>
       </c>
       <c r="G110" s="18">
         <v>877803</v>
@@ -3382,13 +3388,13 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="F111" s="18">
         <v>35112</v>
@@ -3405,13 +3411,13 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="F112" s="18">
         <v>35112</v>
@@ -3428,13 +3434,13 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="F113" s="18">
         <v>35112</v>
@@ -3451,13 +3457,13 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="F114" s="18">
         <v>35112</v>
@@ -3474,13 +3480,13 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="F115" s="18">
         <v>35112</v>
@@ -3497,13 +3503,13 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="F116" s="18">
         <v>35112</v>
@@ -3520,13 +3526,13 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="F117" s="18">
         <v>35112</v>
@@ -3543,13 +3549,13 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="F118" s="18">
         <v>35112</v>
@@ -3566,13 +3572,13 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="F119" s="18">
         <v>35112</v>
@@ -3589,13 +3595,13 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="F120" s="18">
         <v>35112</v>
@@ -3612,13 +3618,13 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="F121" s="18">
         <v>35112</v>
@@ -3635,13 +3641,13 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="F122" s="18">
         <v>35112</v>
@@ -3658,13 +3664,13 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="F123" s="18">
         <v>35112</v>
@@ -3681,13 +3687,13 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="F124" s="18">
         <v>35112</v>
@@ -3704,13 +3710,13 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F125" s="18">
         <v>35112</v>
@@ -3727,13 +3733,13 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="F126" s="18">
         <v>35112</v>
@@ -3750,13 +3756,13 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="F127" s="18">
         <v>35112</v>
@@ -3773,13 +3779,13 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="F128" s="18">
         <v>35112</v>
@@ -3796,13 +3802,13 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="F129" s="18">
         <v>35112</v>
@@ -3819,13 +3825,13 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="F130" s="18">
         <v>35112</v>
@@ -3842,13 +3848,13 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="F131" s="18">
         <v>35112</v>
@@ -3865,13 +3871,13 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="F132" s="18">
         <v>35112</v>
@@ -3888,16 +3894,16 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="F133" s="18">
-        <v>35112</v>
+        <v>32771</v>
       </c>
       <c r="G133" s="18">
         <v>877803</v>
@@ -3911,13 +3917,13 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D134" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E134" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D134" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E134" s="16" t="s">
-        <v>49</v>
       </c>
       <c r="F134" s="18">
         <v>35112</v>
@@ -3934,13 +3940,13 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="F135" s="18">
         <v>35112</v>
@@ -3957,13 +3963,13 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="F136" s="18">
         <v>35112</v>
@@ -3980,13 +3986,13 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="F137" s="18">
         <v>35112</v>
@@ -4003,13 +4009,13 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="F138" s="18">
         <v>35112</v>
@@ -4026,13 +4032,13 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="F139" s="18">
         <v>35112</v>
@@ -4049,13 +4055,13 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="F140" s="18">
         <v>35112</v>
@@ -4072,13 +4078,13 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="F141" s="18">
         <v>35112</v>
@@ -4095,13 +4101,13 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="F142" s="18">
         <v>35112</v>
@@ -4118,13 +4124,13 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="F143" s="18">
         <v>35112</v>
@@ -4141,13 +4147,13 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="F144" s="18">
         <v>35112</v>
@@ -4164,13 +4170,13 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="F145" s="18">
         <v>35112</v>
@@ -4187,13 +4193,13 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="F146" s="18">
         <v>35112</v>
@@ -4210,13 +4216,13 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F147" s="18">
         <v>35112</v>
@@ -4233,13 +4239,13 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="F148" s="18">
         <v>35112</v>
@@ -4256,13 +4262,13 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="F149" s="18">
         <v>35112</v>
@@ -4279,13 +4285,13 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="F150" s="18">
         <v>35112</v>
@@ -4302,13 +4308,13 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="F151" s="18">
         <v>35112</v>
@@ -4325,13 +4331,13 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F152" s="18">
         <v>35112</v>
@@ -4348,13 +4354,13 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="F153" s="18">
         <v>35112</v>
@@ -4371,13 +4377,13 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F154" s="18">
         <v>35112</v>
@@ -4394,13 +4400,13 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="F155" s="18">
         <v>35112</v>
@@ -4417,13 +4423,13 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="F156" s="18">
         <v>35112</v>
@@ -4440,13 +4446,13 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="F157" s="18">
         <v>35112</v>
@@ -4463,13 +4469,13 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D158" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E158" s="16" t="s">
         <v>36</v>
-      </c>
-      <c r="D158" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E158" s="16" t="s">
-        <v>50</v>
       </c>
       <c r="F158" s="18">
         <v>35112</v>
@@ -4486,13 +4492,13 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="F159" s="18">
         <v>35112</v>
@@ -4509,13 +4515,13 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F160" s="18">
         <v>35112</v>
@@ -4532,13 +4538,13 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F161" s="18">
         <v>35112</v>
@@ -4555,13 +4561,13 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F162" s="18">
         <v>35112</v>
@@ -4578,13 +4584,13 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F163" s="18">
         <v>35112</v>
@@ -4601,13 +4607,13 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F164" s="18">
         <v>35112</v>
@@ -4624,13 +4630,13 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F165" s="18">
         <v>35112</v>
@@ -4647,13 +4653,13 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="F166" s="18">
         <v>35112</v>
@@ -4670,13 +4676,13 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="F167" s="18">
         <v>35112</v>
@@ -4693,13 +4699,13 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="F168" s="18">
         <v>35112</v>
@@ -4716,13 +4722,13 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D169" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E169" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="D169" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E169" s="16" t="s">
-        <v>51</v>
       </c>
       <c r="F169" s="18">
         <v>35112</v>
@@ -4739,13 +4745,13 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="F170" s="18">
         <v>35112</v>
@@ -4762,13 +4768,13 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="F171" s="18">
         <v>35112</v>
@@ -4785,13 +4791,13 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="F172" s="18">
         <v>35112</v>
@@ -4808,13 +4814,13 @@
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="F173" s="18">
         <v>35112</v>
@@ -4831,13 +4837,13 @@
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="F174" s="18">
         <v>35112</v>
@@ -4854,13 +4860,13 @@
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="F175" s="18">
         <v>35112</v>
@@ -4877,13 +4883,13 @@
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="D176" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E176" s="16" t="s">
         <v>29</v>
-      </c>
-      <c r="E176" s="16" t="s">
-        <v>54</v>
       </c>
       <c r="F176" s="18">
         <v>35112</v>
@@ -4900,13 +4906,13 @@
         <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F177" s="18">
         <v>35112</v>
@@ -4923,13 +4929,13 @@
         <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="F178" s="18">
         <v>35112</v>
@@ -4946,13 +4952,13 @@
         <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="F179" s="18">
         <v>35112</v>
@@ -4969,13 +4975,13 @@
         <v>8</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="F180" s="18">
         <v>35112</v>
@@ -4992,13 +4998,13 @@
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="F181" s="18">
         <v>35112</v>
@@ -5015,13 +5021,13 @@
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="F182" s="18">
         <v>35112</v>
@@ -5038,13 +5044,13 @@
         <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="F183" s="18">
         <v>35112</v>
@@ -5061,13 +5067,13 @@
         <v>8</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="F184" s="18">
         <v>35112</v>
@@ -5084,13 +5090,13 @@
         <v>8</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="F185" s="18">
         <v>35112</v>
@@ -5107,13 +5113,13 @@
         <v>8</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F186" s="18">
         <v>35112</v>
@@ -5130,13 +5136,13 @@
         <v>8</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F187" s="18">
         <v>35112</v>
@@ -5153,13 +5159,13 @@
         <v>8</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F188" s="18">
         <v>35112</v>
@@ -5176,13 +5182,13 @@
         <v>8</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F189" s="18">
         <v>35112</v>
@@ -5199,13 +5205,13 @@
         <v>8</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F190" s="18">
         <v>35112</v>
@@ -5222,16 +5228,16 @@
         <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="F191" s="18">
-        <v>35112</v>
+        <v>32771</v>
       </c>
       <c r="G191" s="18">
         <v>877803</v>
@@ -5245,13 +5251,13 @@
         <v>8</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="F192" s="18">
         <v>35112</v>
@@ -5268,13 +5274,13 @@
         <v>8</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="F193" s="18">
         <v>35112</v>
@@ -5291,13 +5297,13 @@
         <v>8</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="F194" s="18">
         <v>35112</v>
@@ -5314,13 +5320,13 @@
         <v>8</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="F195" s="18">
         <v>35112</v>
@@ -5337,13 +5343,13 @@
         <v>8</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="F196" s="18">
         <v>35112</v>
@@ -5360,13 +5366,13 @@
         <v>8</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="F197" s="18">
         <v>35112</v>
@@ -5383,13 +5389,13 @@
         <v>8</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="F198" s="18">
         <v>35112</v>
@@ -5406,13 +5412,13 @@
         <v>8</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="F199" s="18">
         <v>35112</v>
@@ -5429,13 +5435,13 @@
         <v>8</v>
       </c>
       <c r="C200" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D200" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E200" s="16" t="s">
         <v>20</v>
-      </c>
-      <c r="D200" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E200" s="16" t="s">
-        <v>55</v>
       </c>
       <c r="F200" s="18">
         <v>35112</v>
@@ -5452,13 +5458,13 @@
         <v>8</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="F201" s="18">
         <v>35112</v>
@@ -5475,13 +5481,13 @@
         <v>8</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="F202" s="18">
         <v>35112</v>
@@ -5498,13 +5504,13 @@
         <v>8</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="F203" s="18">
         <v>35112</v>
@@ -5521,13 +5527,13 @@
         <v>8</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="F204" s="18">
         <v>35112</v>
@@ -5544,13 +5550,13 @@
         <v>8</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E205" s="16" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="F205" s="18">
         <v>35112</v>
@@ -5567,13 +5573,13 @@
         <v>8</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="E206" s="16" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="F206" s="18">
         <v>35112</v>
@@ -5590,13 +5596,13 @@
         <v>8</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="F207" s="18">
         <v>35112</v>
@@ -5613,13 +5619,13 @@
         <v>8</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="F208" s="18">
         <v>35112</v>
@@ -5636,13 +5642,13 @@
         <v>8</v>
       </c>
       <c r="C209" s="16" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="E209" s="16" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="F209" s="18">
         <v>35112</v>
@@ -5659,13 +5665,13 @@
         <v>8</v>
       </c>
       <c r="C210" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D210" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E210" s="16" t="s">
         <v>30</v>
-      </c>
-      <c r="D210" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E210" s="16" t="s">
-        <v>56</v>
       </c>
       <c r="F210" s="18">
         <v>35112</v>
@@ -5682,13 +5688,13 @@
         <v>8</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="E211" s="16" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="F211" s="18">
         <v>35112</v>
@@ -5705,13 +5711,13 @@
         <v>8</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="E212" s="16" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="F212" s="18">
         <v>35112</v>
@@ -5728,13 +5734,13 @@
         <v>8</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="E213" s="16" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="F213" s="18">
         <v>35112</v>
@@ -5751,13 +5757,13 @@
         <v>8</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="E214" s="16" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F214" s="18">
         <v>35112</v>
@@ -5774,13 +5780,13 @@
         <v>8</v>
       </c>
       <c r="C215" s="16" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="D215" s="17" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="E215" s="16" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="F215" s="18">
         <v>35112</v>
@@ -5797,13 +5803,13 @@
         <v>8</v>
       </c>
       <c r="C216" s="16" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E216" s="16" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="F216" s="18">
         <v>35112</v>
@@ -5820,13 +5826,13 @@
         <v>8</v>
       </c>
       <c r="C217" s="16" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="E217" s="16" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="F217" s="18">
         <v>35112</v>
@@ -5843,13 +5849,13 @@
         <v>8</v>
       </c>
       <c r="C218" s="16" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D218" s="17" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E218" s="16" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="F218" s="18">
         <v>35112</v>
@@ -5866,13 +5872,13 @@
         <v>8</v>
       </c>
       <c r="C219" s="16" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="E219" s="16" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="F219" s="18">
         <v>35112</v>
@@ -5889,13 +5895,13 @@
         <v>8</v>
       </c>
       <c r="C220" s="16" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E220" s="16" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F220" s="18">
         <v>35112</v>
@@ -5912,13 +5918,13 @@
         <v>8</v>
       </c>
       <c r="C221" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E221" s="16" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F221" s="18">
         <v>35112</v>
@@ -5935,13 +5941,13 @@
         <v>8</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="E222" s="16" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F222" s="18">
         <v>35112</v>
@@ -5958,16 +5964,16 @@
         <v>8</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="E223" s="16" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="F223" s="18">
-        <v>35112</v>
+        <v>32771</v>
       </c>
       <c r="G223" s="18">
         <v>877803</v>
@@ -5981,13 +5987,13 @@
         <v>8</v>
       </c>
       <c r="C224" s="16" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="D224" s="17" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="E224" s="16" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="F224" s="18">
         <v>35112</v>
@@ -6004,13 +6010,13 @@
         <v>8</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="D225" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E225" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="E225" s="16" t="s">
-        <v>57</v>
       </c>
       <c r="F225" s="18">
         <v>35112</v>
@@ -6027,13 +6033,13 @@
         <v>8</v>
       </c>
       <c r="C226" s="16" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="E226" s="16" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="F226" s="18">
         <v>35112</v>
@@ -6050,13 +6056,13 @@
         <v>8</v>
       </c>
       <c r="C227" s="16" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="D227" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E227" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="E227" s="16" t="s">
-        <v>57</v>
       </c>
       <c r="F227" s="18">
         <v>35112</v>
@@ -6073,13 +6079,13 @@
         <v>8</v>
       </c>
       <c r="C228" s="16" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="D228" s="17" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="E228" s="16" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="F228" s="18">
         <v>35112</v>
@@ -6096,13 +6102,13 @@
         <v>8</v>
       </c>
       <c r="C229" s="16" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E229" s="16" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="F229" s="18">
         <v>35112</v>
@@ -6119,13 +6125,13 @@
         <v>8</v>
       </c>
       <c r="C230" s="16" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="D230" s="17" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="E230" s="16" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="F230" s="18">
         <v>35112</v>
@@ -6142,13 +6148,13 @@
         <v>8</v>
       </c>
       <c r="C231" s="16" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D231" s="17" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E231" s="16" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="F231" s="18">
         <v>35112</v>
@@ -6165,13 +6171,13 @@
         <v>8</v>
       </c>
       <c r="C232" s="16" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="D232" s="17" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="E232" s="16" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="F232" s="18">
         <v>35112</v>
@@ -6188,13 +6194,13 @@
         <v>8</v>
       </c>
       <c r="C233" s="16" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E233" s="16" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="F233" s="18">
         <v>35112</v>
@@ -6211,13 +6217,13 @@
         <v>8</v>
       </c>
       <c r="C234" s="16" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="D234" s="17" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="E234" s="16" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="F234" s="18">
         <v>35112</v>
@@ -6234,13 +6240,13 @@
         <v>8</v>
       </c>
       <c r="C235" s="16" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="D235" s="17" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="E235" s="16" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="F235" s="18">
         <v>35112</v>
@@ -6257,13 +6263,13 @@
         <v>8</v>
       </c>
       <c r="C236" s="16" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="D236" s="17" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="E236" s="16" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="F236" s="18">
         <v>35112</v>
@@ -6280,13 +6286,13 @@
         <v>8</v>
       </c>
       <c r="C237" s="16" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="D237" s="17" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="E237" s="16" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="F237" s="18">
         <v>35112</v>
@@ -6303,13 +6309,13 @@
         <v>8</v>
       </c>
       <c r="C238" s="16" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="D238" s="17" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="E238" s="16" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="F238" s="18">
         <v>35112</v>
@@ -6326,13 +6332,13 @@
         <v>8</v>
       </c>
       <c r="C239" s="16" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="D239" s="17" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="E239" s="16" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="F239" s="18">
         <v>35112</v>
@@ -6349,13 +6355,13 @@
         <v>8</v>
       </c>
       <c r="C240" s="16" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="D240" s="17" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="E240" s="16" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="F240" s="18">
         <v>35112</v>
@@ -6372,13 +6378,13 @@
         <v>8</v>
       </c>
       <c r="C241" s="16" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="D241" s="17" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="E241" s="16" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="F241" s="18">
         <v>35112</v>
@@ -6395,13 +6401,13 @@
         <v>8</v>
       </c>
       <c r="C242" s="16" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="D242" s="17" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="E242" s="16" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="F242" s="18">
         <v>35112</v>
@@ -6418,13 +6424,13 @@
         <v>8</v>
       </c>
       <c r="C243" s="16" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D243" s="17" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E243" s="16" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F243" s="18">
         <v>35112</v>
@@ -6441,13 +6447,13 @@
         <v>8</v>
       </c>
       <c r="C244" s="16" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="D244" s="17" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="E244" s="16" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="F244" s="18">
         <v>35112</v>
@@ -6464,13 +6470,13 @@
         <v>8</v>
       </c>
       <c r="C245" s="16" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D245" s="17" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E245" s="16" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="F245" s="18">
         <v>35112</v>
@@ -6487,13 +6493,13 @@
         <v>8</v>
       </c>
       <c r="C246" s="16" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="D246" s="17" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="E246" s="16" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="F246" s="18">
         <v>35112</v>
@@ -6510,13 +6516,13 @@
         <v>8</v>
       </c>
       <c r="C247" s="16" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="D247" s="17" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E247" s="16" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="F247" s="18">
         <v>35112</v>
@@ -6533,13 +6539,13 @@
         <v>8</v>
       </c>
       <c r="C248" s="16" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="D248" s="17" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="E248" s="16" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="F248" s="18">
         <v>35112</v>
@@ -6556,13 +6562,13 @@
         <v>8</v>
       </c>
       <c r="C249" s="16" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="D249" s="17" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="E249" s="16" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="F249" s="18">
         <v>35112</v>
@@ -6579,13 +6585,13 @@
         <v>8</v>
       </c>
       <c r="C250" s="16" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="D250" s="17" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="E250" s="16" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="F250" s="18">
         <v>35112</v>
@@ -6602,13 +6608,13 @@
         <v>8</v>
       </c>
       <c r="C251" s="16" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="D251" s="17" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="E251" s="16" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F251" s="18">
         <v>35112</v>
@@ -6625,13 +6631,13 @@
         <v>8</v>
       </c>
       <c r="C252" s="16" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="D252" s="17" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="E252" s="16" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F252" s="18">
         <v>35112</v>
@@ -6648,13 +6654,13 @@
         <v>8</v>
       </c>
       <c r="C253" s="16" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="D253" s="17" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="E253" s="16" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="F253" s="18">
         <v>35112</v>
@@ -6671,13 +6677,13 @@
         <v>8</v>
       </c>
       <c r="C254" s="16" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="D254" s="17" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="E254" s="16" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="F254" s="18">
         <v>35112</v>
@@ -6694,16 +6700,16 @@
         <v>8</v>
       </c>
       <c r="C255" s="16" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="D255" s="17" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="E255" s="16" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="F255" s="18">
-        <v>35112</v>
+        <v>32771</v>
       </c>
       <c r="G255" s="18">
         <v>877803</v>
@@ -6717,13 +6723,13 @@
         <v>8</v>
       </c>
       <c r="C256" s="16" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="D256" s="17" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="E256" s="16" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="F256" s="18">
         <v>35112</v>
@@ -6740,13 +6746,13 @@
         <v>8</v>
       </c>
       <c r="C257" s="16" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="D257" s="17" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="E257" s="16" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="F257" s="18">
         <v>35112</v>
@@ -6763,13 +6769,13 @@
         <v>8</v>
       </c>
       <c r="C258" s="16" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D258" s="17" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="E258" s="16" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="F258" s="18">
         <v>35112</v>
@@ -6786,13 +6792,13 @@
         <v>8</v>
       </c>
       <c r="C259" s="16" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="D259" s="17" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="E259" s="16" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="F259" s="18">
         <v>35112</v>
@@ -6809,13 +6815,13 @@
         <v>8</v>
       </c>
       <c r="C260" s="16" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="D260" s="17" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="E260" s="16" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="F260" s="18">
         <v>35112</v>
@@ -6832,13 +6838,13 @@
         <v>8</v>
       </c>
       <c r="C261" s="16" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="D261" s="17" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="E261" s="16" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="F261" s="18">
         <v>35112</v>
@@ -6855,13 +6861,13 @@
         <v>8</v>
       </c>
       <c r="C262" s="16" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="D262" s="17" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="E262" s="16" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="F262" s="18">
         <v>35112</v>
@@ -6878,13 +6884,13 @@
         <v>8</v>
       </c>
       <c r="C263" s="16" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D263" s="17" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="E263" s="16" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="F263" s="18">
         <v>35112</v>
@@ -6901,13 +6907,13 @@
         <v>8</v>
       </c>
       <c r="C264" s="16" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="D264" s="17" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="E264" s="16" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="F264" s="18">
         <v>35112</v>
@@ -6924,13 +6930,13 @@
         <v>8</v>
       </c>
       <c r="C265" s="16" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="D265" s="17" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="E265" s="16" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="F265" s="18">
         <v>35112</v>
@@ -6947,13 +6953,13 @@
         <v>8</v>
       </c>
       <c r="C266" s="16" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="D266" s="17" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="E266" s="16" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="F266" s="18">
         <v>35112</v>
@@ -6970,13 +6976,13 @@
         <v>8</v>
       </c>
       <c r="C267" s="16" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="D267" s="17" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="E267" s="16" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="F267" s="18">
         <v>35112</v>
@@ -6993,13 +6999,13 @@
         <v>8</v>
       </c>
       <c r="C268" s="16" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="D268" s="17" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="E268" s="16" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="F268" s="18">
         <v>35112</v>
@@ -7016,13 +7022,13 @@
         <v>8</v>
       </c>
       <c r="C269" s="16" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="D269" s="17" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="E269" s="16" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="F269" s="18">
         <v>35112</v>
@@ -7039,13 +7045,13 @@
         <v>8</v>
       </c>
       <c r="C270" s="16" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D270" s="17" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E270" s="16" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="F270" s="18">
         <v>35112</v>
@@ -7062,13 +7068,13 @@
         <v>8</v>
       </c>
       <c r="C271" s="16" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="D271" s="17" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="E271" s="16" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="F271" s="18">
         <v>35112</v>
@@ -7085,13 +7091,13 @@
         <v>8</v>
       </c>
       <c r="C272" s="16" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D272" s="17" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E272" s="16" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="F272" s="18">
         <v>35112</v>
@@ -7108,13 +7114,13 @@
         <v>8</v>
       </c>
       <c r="C273" s="16" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="D273" s="17" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="E273" s="16" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="F273" s="18">
         <v>35112</v>
@@ -7131,13 +7137,13 @@
         <v>8</v>
       </c>
       <c r="C274" s="16" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="D274" s="17" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="E274" s="16" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F274" s="18">
         <v>35112</v>
@@ -7154,13 +7160,13 @@
         <v>8</v>
       </c>
       <c r="C275" s="16" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="D275" s="17" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="E275" s="16" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="F275" s="18">
         <v>35112</v>
@@ -7177,13 +7183,13 @@
         <v>8</v>
       </c>
       <c r="C276" s="16" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="D276" s="17" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="E276" s="16" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="F276" s="18">
         <v>35112</v>
@@ -7200,13 +7206,13 @@
         <v>8</v>
       </c>
       <c r="C277" s="16" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="D277" s="17" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="E277" s="16" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="F277" s="18">
         <v>35112</v>
@@ -7223,13 +7229,13 @@
         <v>8</v>
       </c>
       <c r="C278" s="16" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="D278" s="17" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="E278" s="16" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="F278" s="18">
         <v>35112</v>
@@ -7246,13 +7252,13 @@
         <v>8</v>
       </c>
       <c r="C279" s="16" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="D279" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E279" s="16" t="s">
         <v>35</v>
-      </c>
-      <c r="E279" s="16" t="s">
-        <v>60</v>
       </c>
       <c r="F279" s="18">
         <v>35112</v>
@@ -7269,13 +7275,13 @@
         <v>8</v>
       </c>
       <c r="C280" s="16" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D280" s="17" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="E280" s="16" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="F280" s="18">
         <v>35112</v>
@@ -7292,13 +7298,13 @@
         <v>8</v>
       </c>
       <c r="C281" s="16" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D281" s="17" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="E281" s="16" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="F281" s="18">
         <v>35112</v>
@@ -7315,13 +7321,13 @@
         <v>8</v>
       </c>
       <c r="C282" s="16" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="D282" s="17" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="E282" s="16" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F282" s="18">
         <v>35112</v>
@@ -7338,13 +7344,13 @@
         <v>8</v>
       </c>
       <c r="C283" s="16" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="D283" s="17" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="E283" s="16" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="F283" s="18">
         <v>35112</v>
@@ -7361,13 +7367,13 @@
         <v>8</v>
       </c>
       <c r="C284" s="16" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="D284" s="17" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="E284" s="16" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="F284" s="18">
         <v>35112</v>
@@ -7384,13 +7390,13 @@
         <v>8</v>
       </c>
       <c r="C285" s="16" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="D285" s="17" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="E285" s="16" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="F285" s="18">
         <v>35112</v>
@@ -7407,13 +7413,13 @@
         <v>8</v>
       </c>
       <c r="C286" s="16" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="D286" s="17" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="E286" s="16" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="F286" s="18">
         <v>35112</v>
@@ -7430,13 +7436,13 @@
         <v>8</v>
       </c>
       <c r="C287" s="16" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="D287" s="17" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="E287" s="16" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="F287" s="18">
         <v>35112</v>
@@ -7453,16 +7459,16 @@
         <v>8</v>
       </c>
       <c r="C288" s="16" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="D288" s="17" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="E288" s="16" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="F288" s="18">
-        <v>35112</v>
+        <v>32771</v>
       </c>
       <c r="G288" s="18">
         <v>877803</v>
@@ -7476,13 +7482,13 @@
         <v>8</v>
       </c>
       <c r="C289" s="16" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="D289" s="17" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="E289" s="16" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="F289" s="18">
         <v>35112</v>
@@ -7499,13 +7505,13 @@
         <v>8</v>
       </c>
       <c r="C290" s="16" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="D290" s="17" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="E290" s="16" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="F290" s="18">
         <v>35112</v>
@@ -7522,13 +7528,13 @@
         <v>8</v>
       </c>
       <c r="C291" s="16" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="D291" s="17" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E291" s="16" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="F291" s="18">
         <v>35112</v>
@@ -7545,13 +7551,13 @@
         <v>8</v>
       </c>
       <c r="C292" s="16" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="D292" s="17" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="E292" s="16" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="F292" s="18">
         <v>35112</v>
@@ -7568,13 +7574,13 @@
         <v>8</v>
       </c>
       <c r="C293" s="16" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D293" s="17" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E293" s="16" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="F293" s="18">
         <v>35112</v>
@@ -7591,13 +7597,13 @@
         <v>8</v>
       </c>
       <c r="C294" s="16" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="D294" s="17" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="E294" s="16" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="F294" s="18">
         <v>35112</v>
@@ -7614,13 +7620,13 @@
         <v>8</v>
       </c>
       <c r="C295" s="16" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="D295" s="17" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="E295" s="16" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="F295" s="18">
         <v>35112</v>
@@ -7637,13 +7643,13 @@
         <v>8</v>
       </c>
       <c r="C296" s="16" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="D296" s="17" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="E296" s="16" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="F296" s="18">
         <v>35112</v>
@@ -7660,13 +7666,13 @@
         <v>8</v>
       </c>
       <c r="C297" s="16" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="D297" s="17" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="E297" s="16" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="F297" s="18">
         <v>35112</v>
@@ -7683,13 +7689,13 @@
         <v>8</v>
       </c>
       <c r="C298" s="16" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="D298" s="17" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="E298" s="16" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="F298" s="18">
         <v>35112</v>
@@ -7706,13 +7712,13 @@
         <v>8</v>
       </c>
       <c r="C299" s="16" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="D299" s="17" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="E299" s="16" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="F299" s="18">
         <v>35112</v>
@@ -7729,13 +7735,13 @@
         <v>8</v>
       </c>
       <c r="C300" s="16" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="D300" s="17" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="E300" s="16" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="F300" s="18">
         <v>35112</v>
@@ -7752,13 +7758,13 @@
         <v>8</v>
       </c>
       <c r="C301" s="16" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="D301" s="17" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="E301" s="16" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="F301" s="18">
         <v>35112</v>
@@ -7775,13 +7781,13 @@
         <v>8</v>
       </c>
       <c r="C302" s="16" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="D302" s="17" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="E302" s="16" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="F302" s="18">
         <v>35112</v>
@@ -7798,13 +7804,13 @@
         <v>8</v>
       </c>
       <c r="C303" s="16" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="D303" s="17" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="E303" s="16" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="F303" s="18">
         <v>35112</v>
@@ -7821,13 +7827,13 @@
         <v>8</v>
       </c>
       <c r="C304" s="16" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="D304" s="17" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="E304" s="16" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="F304" s="18">
         <v>35112</v>
@@ -7844,13 +7850,13 @@
         <v>8</v>
       </c>
       <c r="C305" s="16" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="D305" s="17" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="E305" s="16" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="F305" s="18">
         <v>35112</v>
@@ -7867,13 +7873,13 @@
         <v>8</v>
       </c>
       <c r="C306" s="16" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="D306" s="17" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="E306" s="16" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="F306" s="18">
         <v>35112</v>
@@ -7890,13 +7896,13 @@
         <v>8</v>
       </c>
       <c r="C307" s="16" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="D307" s="17" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="E307" s="16" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="F307" s="18">
         <v>35112</v>
@@ -7913,13 +7919,13 @@
         <v>8</v>
       </c>
       <c r="C308" s="16" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="D308" s="17" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="E308" s="16" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="F308" s="18">
         <v>35112</v>
@@ -7936,13 +7942,13 @@
         <v>8</v>
       </c>
       <c r="C309" s="16" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="D309" s="17" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="E309" s="16" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="F309" s="18">
         <v>35112</v>
@@ -7959,13 +7965,13 @@
         <v>8</v>
       </c>
       <c r="C310" s="16" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="D310" s="17" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="E310" s="16" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="F310" s="18">
         <v>35112</v>
@@ -7982,13 +7988,13 @@
         <v>8</v>
       </c>
       <c r="C311" s="16" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="D311" s="17" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="E311" s="16" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="F311" s="18">
         <v>35112</v>
@@ -8005,13 +8011,13 @@
         <v>8</v>
       </c>
       <c r="C312" s="16" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="D312" s="17" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="E312" s="16" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="F312" s="18">
         <v>35112</v>
@@ -8028,13 +8034,13 @@
         <v>8</v>
       </c>
       <c r="C313" s="16" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="D313" s="17" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="E313" s="16" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="F313" s="18">
         <v>35112</v>
@@ -8051,13 +8057,13 @@
         <v>8</v>
       </c>
       <c r="C314" s="16" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="D314" s="17" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="E314" s="16" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="F314" s="18">
         <v>35112</v>
@@ -8074,13 +8080,13 @@
         <v>8</v>
       </c>
       <c r="C315" s="16" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="D315" s="17" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="E315" s="16" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="F315" s="18">
         <v>35112</v>
@@ -8097,13 +8103,13 @@
         <v>8</v>
       </c>
       <c r="C316" s="16" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="D316" s="17" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="E316" s="16" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="F316" s="18">
         <v>35112</v>
@@ -8120,13 +8126,13 @@
         <v>8</v>
       </c>
       <c r="C317" s="16" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="D317" s="17" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E317" s="16" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="F317" s="18">
         <v>35112</v>
@@ -8143,13 +8149,13 @@
         <v>8</v>
       </c>
       <c r="C318" s="16" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D318" s="17" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E318" s="16" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="F318" s="18">
         <v>35112</v>
@@ -8166,13 +8172,13 @@
         <v>8</v>
       </c>
       <c r="C319" s="16" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="D319" s="17" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="E319" s="16" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="F319" s="18">
         <v>35112</v>
@@ -8189,13 +8195,13 @@
         <v>8</v>
       </c>
       <c r="C320" s="16" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="D320" s="17" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="E320" s="16" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="F320" s="18">
         <v>35112</v>
@@ -8212,16 +8218,16 @@
         <v>8</v>
       </c>
       <c r="C321" s="16" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="D321" s="17" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="E321" s="16" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="F321" s="18">
-        <v>35112</v>
+        <v>32771</v>
       </c>
       <c r="G321" s="18">
         <v>877803</v>
@@ -8235,13 +8241,13 @@
         <v>8</v>
       </c>
       <c r="C322" s="16" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="D322" s="17" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="E322" s="16" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="F322" s="18">
         <v>35112</v>
@@ -8258,13 +8264,13 @@
         <v>8</v>
       </c>
       <c r="C323" s="16" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="D323" s="17" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="E323" s="16" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="F323" s="18">
         <v>35112</v>
@@ -8281,13 +8287,13 @@
         <v>8</v>
       </c>
       <c r="C324" s="16" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D324" s="17" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="E324" s="16" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="F324" s="18">
         <v>35112</v>
@@ -8304,13 +8310,13 @@
         <v>8</v>
       </c>
       <c r="C325" s="16" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="D325" s="17" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E325" s="16" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="F325" s="18">
         <v>35112</v>
@@ -8327,13 +8333,13 @@
         <v>8</v>
       </c>
       <c r="C326" s="16" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="D326" s="17" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="E326" s="16" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="F326" s="18">
         <v>35112</v>
@@ -8350,13 +8356,13 @@
         <v>8</v>
       </c>
       <c r="C327" s="16" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="D327" s="17" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="E327" s="16" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="F327" s="18">
         <v>35112</v>
@@ -8373,13 +8379,13 @@
         <v>8</v>
       </c>
       <c r="C328" s="16" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="D328" s="17" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="E328" s="16" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="F328" s="18">
         <v>35112</v>
@@ -8396,13 +8402,13 @@
         <v>8</v>
       </c>
       <c r="C329" s="16" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="D329" s="17" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="E329" s="16" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="F329" s="18">
         <v>35112</v>
@@ -8419,13 +8425,13 @@
         <v>8</v>
       </c>
       <c r="C330" s="16" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="D330" s="17" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="E330" s="16" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="F330" s="18">
         <v>35112</v>
@@ -8442,13 +8448,13 @@
         <v>8</v>
       </c>
       <c r="C331" s="16" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="D331" s="17" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="E331" s="16" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="F331" s="18">
         <v>35112</v>
@@ -8465,13 +8471,13 @@
         <v>8</v>
       </c>
       <c r="C332" s="16" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="D332" s="17" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="E332" s="16" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="F332" s="18">
         <v>35112</v>
@@ -8488,13 +8494,13 @@
         <v>8</v>
       </c>
       <c r="C333" s="16" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="D333" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E333" s="16" t="s">
         <v>23</v>
-      </c>
-      <c r="E333" s="16" t="s">
-        <v>63</v>
       </c>
       <c r="F333" s="18">
         <v>35112</v>
@@ -8511,13 +8517,13 @@
         <v>8</v>
       </c>
       <c r="C334" s="16" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="D334" s="17" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="E334" s="16" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="F334" s="18">
         <v>35112</v>
@@ -8534,13 +8540,13 @@
         <v>8</v>
       </c>
       <c r="C335" s="16" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="D335" s="17" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="E335" s="16" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="F335" s="18">
         <v>35112</v>
@@ -8557,13 +8563,13 @@
         <v>8</v>
       </c>
       <c r="C336" s="16" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="D336" s="17" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="E336" s="16" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="F336" s="18">
         <v>35112</v>
@@ -8580,13 +8586,13 @@
         <v>8</v>
       </c>
       <c r="C337" s="16" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="D337" s="17" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="E337" s="16" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="F337" s="18">
         <v>35112</v>
@@ -8603,13 +8609,13 @@
         <v>8</v>
       </c>
       <c r="C338" s="16" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="D338" s="17" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="E338" s="16" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="F338" s="18">
         <v>35112</v>
@@ -8626,13 +8632,13 @@
         <v>8</v>
       </c>
       <c r="C339" s="16" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D339" s="17" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="E339" s="16" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="F339" s="18">
         <v>35112</v>
@@ -8649,13 +8655,13 @@
         <v>8</v>
       </c>
       <c r="C340" s="16" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="D340" s="17" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="E340" s="16" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="F340" s="18">
         <v>35112</v>
@@ -8672,13 +8678,13 @@
         <v>8</v>
       </c>
       <c r="C341" s="16" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="D341" s="17" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="E341" s="16" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="F341" s="18">
         <v>35112</v>
@@ -8695,13 +8701,13 @@
         <v>8</v>
       </c>
       <c r="C342" s="16" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D342" s="17" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="E342" s="16" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F342" s="18">
         <v>35112</v>
@@ -8718,13 +8724,13 @@
         <v>8</v>
       </c>
       <c r="C343" s="16" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="D343" s="17" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="E343" s="16" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="F343" s="18">
         <v>35112</v>
@@ -8741,13 +8747,13 @@
         <v>8</v>
       </c>
       <c r="C344" s="16" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="D344" s="17" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="E344" s="16" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="F344" s="18">
         <v>35112</v>
@@ -8764,13 +8770,13 @@
         <v>8</v>
       </c>
       <c r="C345" s="16" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="D345" s="17" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="E345" s="16" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="F345" s="18">
         <v>35112</v>
@@ -8787,13 +8793,13 @@
         <v>8</v>
       </c>
       <c r="C346" s="16" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="D346" s="17" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="E346" s="16" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="F346" s="18">
         <v>35112</v>
@@ -8810,13 +8816,13 @@
         <v>8</v>
       </c>
       <c r="C347" s="16" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="D347" s="17" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="E347" s="16" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="F347" s="18">
         <v>35112</v>
@@ -8833,13 +8839,13 @@
         <v>8</v>
       </c>
       <c r="C348" s="16" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="D348" s="17" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="E348" s="16" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="F348" s="18">
         <v>35112</v>
@@ -8856,13 +8862,13 @@
         <v>8</v>
       </c>
       <c r="C349" s="16" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="D349" s="17" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="E349" s="16" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="F349" s="18">
         <v>35112</v>
@@ -8879,13 +8885,13 @@
         <v>8</v>
       </c>
       <c r="C350" s="16" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="D350" s="17" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E350" s="16" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="F350" s="18">
         <v>35112</v>
@@ -8902,13 +8908,13 @@
         <v>8</v>
       </c>
       <c r="C351" s="16" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D351" s="17" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="E351" s="16" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="F351" s="18">
         <v>35112</v>
@@ -8925,13 +8931,13 @@
         <v>8</v>
       </c>
       <c r="C352" s="16" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D352" s="17" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="E352" s="16" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="F352" s="18">
         <v>35112</v>
@@ -8948,13 +8954,13 @@
         <v>8</v>
       </c>
       <c r="C353" s="16" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="D353" s="17" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="E353" s="16" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="F353" s="18">
         <v>35112</v>
@@ -8971,16 +8977,16 @@
         <v>8</v>
       </c>
       <c r="C354" s="16" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="D354" s="17" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="E354" s="16" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="F354" s="18">
-        <v>35112</v>
+        <v>32771</v>
       </c>
       <c r="G354" s="18">
         <v>877803</v>
@@ -8994,13 +9000,13 @@
         <v>8</v>
       </c>
       <c r="C355" s="16" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="D355" s="17" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="E355" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="F355" s="18">
         <v>35112</v>
@@ -9017,13 +9023,13 @@
         <v>8</v>
       </c>
       <c r="C356" s="16" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="D356" s="17" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="E356" s="16" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="F356" s="18">
         <v>35112</v>
@@ -9040,13 +9046,13 @@
         <v>8</v>
       </c>
       <c r="C357" s="16" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="D357" s="17" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="E357" s="16" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="F357" s="18">
         <v>35112</v>
@@ -9063,13 +9069,13 @@
         <v>8</v>
       </c>
       <c r="C358" s="16" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="D358" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E358" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="E358" s="16" t="s">
-        <v>65</v>
       </c>
       <c r="F358" s="18">
         <v>35112</v>
@@ -9086,13 +9092,13 @@
         <v>8</v>
       </c>
       <c r="C359" s="16" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="D359" s="17" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="E359" s="16" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="F359" s="18">
         <v>35112</v>
@@ -9109,13 +9115,13 @@
         <v>8</v>
       </c>
       <c r="C360" s="16" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="D360" s="17" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="E360" s="16" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="F360" s="18">
         <v>35112</v>
@@ -9132,13 +9138,13 @@
         <v>8</v>
       </c>
       <c r="C361" s="16" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="D361" s="17" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="E361" s="16" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="F361" s="18">
         <v>35112</v>
@@ -9155,13 +9161,13 @@
         <v>8</v>
       </c>
       <c r="C362" s="16" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="D362" s="17" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="E362" s="16" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="F362" s="18">
         <v>35112</v>
@@ -9178,13 +9184,13 @@
         <v>8</v>
       </c>
       <c r="C363" s="16" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D363" s="17" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="E363" s="16" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="F363" s="18">
         <v>35112</v>
@@ -9201,13 +9207,13 @@
         <v>8</v>
       </c>
       <c r="C364" s="16" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="D364" s="17" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="E364" s="16" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="F364" s="18">
         <v>35112</v>
@@ -9224,13 +9230,13 @@
         <v>8</v>
       </c>
       <c r="C365" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D365" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E365" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="D365" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E365" s="16" t="s">
-        <v>65</v>
       </c>
       <c r="F365" s="18">
         <v>35112</v>
@@ -9247,13 +9253,13 @@
         <v>8</v>
       </c>
       <c r="C366" s="16" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="D366" s="17" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="E366" s="16" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="F366" s="18">
         <v>35112</v>
@@ -9270,13 +9276,13 @@
         <v>8</v>
       </c>
       <c r="C367" s="16" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="D367" s="17" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="E367" s="16" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="F367" s="18">
         <v>35112</v>
@@ -9293,13 +9299,13 @@
         <v>8</v>
       </c>
       <c r="C368" s="16" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="D368" s="17" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="E368" s="16" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="F368" s="18">
         <v>35112</v>
@@ -9316,13 +9322,13 @@
         <v>8</v>
       </c>
       <c r="C369" s="16" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="D369" s="17" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="E369" s="16" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="F369" s="18">
         <v>35112</v>
@@ -9339,13 +9345,13 @@
         <v>8</v>
       </c>
       <c r="C370" s="16" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="D370" s="17" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="E370" s="16" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="F370" s="18">
         <v>35112</v>
@@ -9362,13 +9368,13 @@
         <v>8</v>
       </c>
       <c r="C371" s="16" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="D371" s="17" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="E371" s="16" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="F371" s="18">
         <v>35112</v>
@@ -9385,13 +9391,13 @@
         <v>8</v>
       </c>
       <c r="C372" s="16" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="D372" s="17" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="E372" s="16" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="F372" s="18">
         <v>35112</v>
@@ -9408,13 +9414,13 @@
         <v>8</v>
       </c>
       <c r="C373" s="16" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="D373" s="17" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="E373" s="16" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="F373" s="18">
         <v>35112</v>
@@ -9431,13 +9437,13 @@
         <v>8</v>
       </c>
       <c r="C374" s="16" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D374" s="17" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="E374" s="16" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="F374" s="18">
         <v>35112</v>
@@ -9454,13 +9460,13 @@
         <v>8</v>
       </c>
       <c r="C375" s="16" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="D375" s="17" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="E375" s="16" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="F375" s="18">
         <v>35112</v>
@@ -9477,13 +9483,13 @@
         <v>8</v>
       </c>
       <c r="C376" s="16" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="D376" s="17" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="E376" s="16" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="F376" s="18">
         <v>35112</v>
@@ -9500,13 +9506,13 @@
         <v>8</v>
       </c>
       <c r="C377" s="16" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="D377" s="17" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="E377" s="16" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="F377" s="18">
         <v>35112</v>
@@ -9523,13 +9529,13 @@
         <v>8</v>
       </c>
       <c r="C378" s="16" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="D378" s="17" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="E378" s="16" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="F378" s="18">
         <v>35112</v>
@@ -9546,13 +9552,13 @@
         <v>8</v>
       </c>
       <c r="C379" s="16" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="D379" s="17" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="E379" s="16" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="F379" s="18">
         <v>35112</v>
@@ -9569,13 +9575,13 @@
         <v>8</v>
       </c>
       <c r="C380" s="16" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="D380" s="17" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="E380" s="16" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="F380" s="18">
         <v>35112</v>
@@ -9592,13 +9598,13 @@
         <v>8</v>
       </c>
       <c r="C381" s="16" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="D381" s="17" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="E381" s="16" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="F381" s="18">
         <v>35112</v>
@@ -9615,13 +9621,13 @@
         <v>8</v>
       </c>
       <c r="C382" s="16" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="D382" s="17" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="E382" s="16" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="F382" s="18">
         <v>35112</v>
@@ -9638,13 +9644,13 @@
         <v>8</v>
       </c>
       <c r="C383" s="16" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="D383" s="17" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="E383" s="16" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="F383" s="18">
         <v>35112</v>
@@ -9661,13 +9667,13 @@
         <v>8</v>
       </c>
       <c r="C384" s="16" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="D384" s="17" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="E384" s="16" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="F384" s="18">
         <v>35112</v>
@@ -9684,13 +9690,13 @@
         <v>8</v>
       </c>
       <c r="C385" s="16" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="D385" s="17" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="E385" s="16" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="F385" s="18">
         <v>35112</v>
@@ -9707,13 +9713,13 @@
         <v>8</v>
       </c>
       <c r="C386" s="16" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="D386" s="17" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="E386" s="16" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="F386" s="18">
         <v>35112</v>
@@ -9730,16 +9736,16 @@
         <v>8</v>
       </c>
       <c r="C387" s="16" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="D387" s="17" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="E387" s="16" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="F387" s="18">
-        <v>35112</v>
+        <v>32771</v>
       </c>
       <c r="G387" s="18">
         <v>877803</v>
@@ -9753,13 +9759,13 @@
         <v>8</v>
       </c>
       <c r="C388" s="16" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="D388" s="17" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="E388" s="16" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="F388" s="18">
         <v>35112</v>
@@ -9776,13 +9782,13 @@
         <v>8</v>
       </c>
       <c r="C389" s="16" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="D389" s="17" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="E389" s="16" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="F389" s="18">
         <v>35112</v>
@@ -9799,13 +9805,13 @@
         <v>8</v>
       </c>
       <c r="C390" s="16" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="D390" s="17" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="E390" s="16" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="F390" s="18">
         <v>35112</v>
@@ -9822,13 +9828,13 @@
         <v>8</v>
       </c>
       <c r="C391" s="16" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="D391" s="17" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="E391" s="16" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="F391" s="18">
         <v>35112</v>
@@ -9845,13 +9851,13 @@
         <v>8</v>
       </c>
       <c r="C392" s="16" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="D392" s="17" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="E392" s="16" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="F392" s="18">
         <v>35112</v>
@@ -9868,13 +9874,13 @@
         <v>8</v>
       </c>
       <c r="C393" s="16" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="D393" s="17" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="E393" s="16" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="F393" s="18">
         <v>35112</v>
@@ -9891,13 +9897,13 @@
         <v>8</v>
       </c>
       <c r="C394" s="16" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="D394" s="17" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="E394" s="16" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="F394" s="18">
         <v>35112</v>
@@ -9914,13 +9920,13 @@
         <v>8</v>
       </c>
       <c r="C395" s="16" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="D395" s="17" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="E395" s="16" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="F395" s="18">
         <v>35112</v>
@@ -9937,13 +9943,13 @@
         <v>8</v>
       </c>
       <c r="C396" s="16" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="D396" s="17" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="E396" s="16" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="F396" s="18">
         <v>35112</v>
@@ -9960,13 +9966,13 @@
         <v>8</v>
       </c>
       <c r="C397" s="16" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="D397" s="17" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="E397" s="16" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="F397" s="18">
         <v>35112</v>
@@ -9983,13 +9989,13 @@
         <v>8</v>
       </c>
       <c r="C398" s="16" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="D398" s="17" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="E398" s="16" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="F398" s="18">
         <v>35112</v>
@@ -10006,13 +10012,13 @@
         <v>8</v>
       </c>
       <c r="C399" s="16" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="D399" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E399" s="16" t="s">
         <v>23</v>
-      </c>
-      <c r="E399" s="16" t="s">
-        <v>68</v>
       </c>
       <c r="F399" s="18">
         <v>35112</v>
@@ -10029,13 +10035,13 @@
         <v>8</v>
       </c>
       <c r="C400" s="16" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="D400" s="17" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="E400" s="16" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="F400" s="18">
         <v>35112</v>
@@ -10052,13 +10058,13 @@
         <v>8</v>
       </c>
       <c r="C401" s="16" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="D401" s="17" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="E401" s="16" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="F401" s="18">
         <v>35112</v>
@@ -10075,13 +10081,13 @@
         <v>8</v>
       </c>
       <c r="C402" s="16" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="D402" s="17" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="E402" s="16" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="F402" s="18">
         <v>35112</v>
@@ -10098,13 +10104,13 @@
         <v>8</v>
       </c>
       <c r="C403" s="16" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="D403" s="17" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="E403" s="16" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="F403" s="18">
         <v>35112</v>
@@ -10121,13 +10127,13 @@
         <v>8</v>
       </c>
       <c r="C404" s="16" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="D404" s="17" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="E404" s="16" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="F404" s="18">
         <v>35112</v>
@@ -10144,13 +10150,13 @@
         <v>8</v>
       </c>
       <c r="C405" s="16" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="D405" s="17" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="E405" s="16" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="F405" s="18">
         <v>35112</v>
@@ -10167,13 +10173,13 @@
         <v>8</v>
       </c>
       <c r="C406" s="16" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="D406" s="17" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="E406" s="16" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="F406" s="18">
         <v>35112</v>
@@ -10190,13 +10196,13 @@
         <v>8</v>
       </c>
       <c r="C407" s="16" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="D407" s="17" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="E407" s="16" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="F407" s="18">
         <v>35112</v>
@@ -10213,13 +10219,13 @@
         <v>8</v>
       </c>
       <c r="C408" s="16" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="D408" s="17" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="E408" s="16" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="F408" s="18">
         <v>35112</v>
@@ -10236,13 +10242,13 @@
         <v>8</v>
       </c>
       <c r="C409" s="16" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="D409" s="17" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="E409" s="16" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="F409" s="18">
         <v>35112</v>
@@ -10259,13 +10265,13 @@
         <v>8</v>
       </c>
       <c r="C410" s="16" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="D410" s="17" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="E410" s="16" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="F410" s="18">
         <v>35112</v>
@@ -10282,13 +10288,13 @@
         <v>8</v>
       </c>
       <c r="C411" s="16" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="D411" s="17" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="E411" s="16" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F411" s="18">
         <v>35112</v>
@@ -10305,13 +10311,13 @@
         <v>8</v>
       </c>
       <c r="C412" s="16" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D412" s="17" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="E412" s="16" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="F412" s="18">
         <v>35112</v>
@@ -10328,13 +10334,13 @@
         <v>8</v>
       </c>
       <c r="C413" s="16" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="D413" s="17" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="E413" s="16" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F413" s="18">
         <v>35112</v>
@@ -10351,13 +10357,13 @@
         <v>8</v>
       </c>
       <c r="C414" s="16" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="D414" s="17" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="E414" s="16" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="F414" s="18">
         <v>35112</v>
@@ -10374,13 +10380,13 @@
         <v>8</v>
       </c>
       <c r="C415" s="16" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="D415" s="17" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="E415" s="16" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="F415" s="18">
         <v>35112</v>
@@ -10397,13 +10403,13 @@
         <v>8</v>
       </c>
       <c r="C416" s="16" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="D416" s="17" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="E416" s="16" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="F416" s="18">
         <v>35112</v>
@@ -10420,13 +10426,13 @@
         <v>8</v>
       </c>
       <c r="C417" s="16" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="D417" s="17" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="E417" s="16" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="F417" s="18">
         <v>35112</v>
@@ -10443,13 +10449,13 @@
         <v>8</v>
       </c>
       <c r="C418" s="16" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="D418" s="17" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="E418" s="16" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="F418" s="18">
         <v>35112</v>
@@ -10466,13 +10472,13 @@
         <v>8</v>
       </c>
       <c r="C419" s="16" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="D419" s="17" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="E419" s="16" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="F419" s="18">
         <v>35112</v>
@@ -10489,16 +10495,16 @@
         <v>8</v>
       </c>
       <c r="C420" s="16" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="D420" s="17" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="E420" s="16" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="F420" s="18">
-        <v>35112</v>
+        <v>32771</v>
       </c>
       <c r="G420" s="18">
         <v>877803</v>
@@ -10512,13 +10518,13 @@
         <v>8</v>
       </c>
       <c r="C421" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D421" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E421" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D421" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E421" s="16" t="s">
-        <v>69</v>
       </c>
       <c r="F421" s="18">
         <v>35112</v>
@@ -10535,13 +10541,13 @@
         <v>8</v>
       </c>
       <c r="C422" s="16" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="D422" s="17" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="E422" s="16" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="F422" s="18">
         <v>35112</v>
@@ -10558,13 +10564,13 @@
         <v>8</v>
       </c>
       <c r="C423" s="16" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="D423" s="17" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="E423" s="16" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="F423" s="18">
         <v>35112</v>
@@ -10581,13 +10587,13 @@
         <v>8</v>
       </c>
       <c r="C424" s="16" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="D424" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E424" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="E424" s="16" t="s">
-        <v>69</v>
       </c>
       <c r="F424" s="18">
         <v>35112</v>
@@ -10604,13 +10610,13 @@
         <v>8</v>
       </c>
       <c r="C425" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D425" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E425" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="D425" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E425" s="16" t="s">
-        <v>69</v>
       </c>
       <c r="F425" s="18">
         <v>35112</v>
@@ -10627,13 +10633,13 @@
         <v>8</v>
       </c>
       <c r="C426" s="16" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="D426" s="17" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="E426" s="16" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="F426" s="18">
         <v>35112</v>
@@ -10650,13 +10656,13 @@
         <v>8</v>
       </c>
       <c r="C427" s="16" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="D427" s="17" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="E427" s="16" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="F427" s="18">
         <v>35112</v>
@@ -10673,13 +10679,13 @@
         <v>8</v>
       </c>
       <c r="C428" s="16" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="D428" s="17" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="E428" s="16" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="F428" s="18">
         <v>35112</v>
@@ -10696,13 +10702,13 @@
         <v>8</v>
       </c>
       <c r="C429" s="16" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="D429" s="17" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="E429" s="16" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="F429" s="18">
         <v>35112</v>
@@ -10719,13 +10725,13 @@
         <v>8</v>
       </c>
       <c r="C430" s="16" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="D430" s="17" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="E430" s="16" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="F430" s="18">
         <v>35112</v>
@@ -10742,13 +10748,13 @@
         <v>8</v>
       </c>
       <c r="C431" s="16" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="D431" s="17" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="E431" s="16" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="F431" s="18">
         <v>35112</v>
@@ -10765,13 +10771,13 @@
         <v>8</v>
       </c>
       <c r="C432" s="16" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="D432" s="17" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="E432" s="16" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="F432" s="18">
         <v>35112</v>
@@ -10788,13 +10794,13 @@
         <v>8</v>
       </c>
       <c r="C433" s="16" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D433" s="17" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="E433" s="16" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="F433" s="18">
         <v>35112</v>
@@ -10811,13 +10817,13 @@
         <v>8</v>
       </c>
       <c r="C434" s="16" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="D434" s="17" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="E434" s="16" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="F434" s="18">
         <v>35112</v>
@@ -10834,13 +10840,13 @@
         <v>8</v>
       </c>
       <c r="C435" s="16" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="D435" s="17" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="E435" s="16" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="F435" s="18">
         <v>35112</v>
@@ -10857,13 +10863,13 @@
         <v>8</v>
       </c>
       <c r="C436" s="16" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="D436" s="17" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="E436" s="16" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="F436" s="18">
         <v>35112</v>
@@ -10880,13 +10886,13 @@
         <v>8</v>
       </c>
       <c r="C437" s="16" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="D437" s="17" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="E437" s="16" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="F437" s="18">
         <v>35112</v>
@@ -10903,13 +10909,13 @@
         <v>8</v>
       </c>
       <c r="C438" s="16" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="D438" s="17" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="E438" s="16" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="F438" s="18">
         <v>35112</v>
@@ -10926,13 +10932,13 @@
         <v>8</v>
       </c>
       <c r="C439" s="16" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="D439" s="17" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="E439" s="16" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="F439" s="18">
         <v>35112</v>
@@ -10949,13 +10955,13 @@
         <v>8</v>
       </c>
       <c r="C440" s="16" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="D440" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E440" s="16" t="s">
         <v>31</v>
-      </c>
-      <c r="E440" s="16" t="s">
-        <v>70</v>
       </c>
       <c r="F440" s="18">
         <v>35112</v>
@@ -10972,13 +10978,13 @@
         <v>8</v>
       </c>
       <c r="C441" s="16" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="D441" s="17" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="E441" s="16" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="F441" s="18">
         <v>35112</v>
@@ -10995,13 +11001,13 @@
         <v>8</v>
       </c>
       <c r="C442" s="16" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="D442" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E442" s="16" t="s">
         <v>33</v>
-      </c>
-      <c r="E442" s="16" t="s">
-        <v>70</v>
       </c>
       <c r="F442" s="18">
         <v>35112</v>
@@ -11018,13 +11024,13 @@
         <v>8</v>
       </c>
       <c r="C443" s="16" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="D443" s="17" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="E443" s="16" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="F443" s="18">
         <v>35112</v>
@@ -11041,13 +11047,13 @@
         <v>8</v>
       </c>
       <c r="C444" s="16" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="D444" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E444" s="16" t="s">
         <v>35</v>
-      </c>
-      <c r="E444" s="16" t="s">
-        <v>71</v>
       </c>
       <c r="F444" s="18">
         <v>35112</v>
@@ -11064,13 +11070,13 @@
         <v>8</v>
       </c>
       <c r="C445" s="16" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="D445" s="17" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="E445" s="16" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="F445" s="18">
         <v>35112</v>
@@ -11087,13 +11093,13 @@
         <v>8</v>
       </c>
       <c r="C446" s="16" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="D446" s="17" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="E446" s="16" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="F446" s="18">
         <v>35112</v>
@@ -11110,13 +11116,13 @@
         <v>8</v>
       </c>
       <c r="C447" s="16" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D447" s="17" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="E447" s="16" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="F447" s="18">
         <v>35112</v>
@@ -11133,13 +11139,13 @@
         <v>8</v>
       </c>
       <c r="C448" s="16" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="D448" s="17" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="E448" s="16" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="F448" s="18">
         <v>35112</v>
@@ -11156,13 +11162,13 @@
         <v>8</v>
       </c>
       <c r="C449" s="16" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="D449" s="17" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="E449" s="16" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="F449" s="18">
         <v>35112</v>
@@ -11179,13 +11185,13 @@
         <v>8</v>
       </c>
       <c r="C450" s="16" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="D450" s="17" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="E450" s="16" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="F450" s="18">
         <v>35112</v>
@@ -11202,13 +11208,13 @@
         <v>8</v>
       </c>
       <c r="C451" s="16" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="D451" s="17" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="E451" s="16" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="F451" s="18">
         <v>35112</v>
@@ -11225,13 +11231,13 @@
         <v>8</v>
       </c>
       <c r="C452" s="16" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="D452" s="17" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="E452" s="16" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="F452" s="18">
         <v>35112</v>
@@ -11248,16 +11254,16 @@
         <v>8</v>
       </c>
       <c r="C453" s="16" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="D453" s="17" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="E453" s="16" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="F453" s="18">
-        <v>35112</v>
+        <v>32771</v>
       </c>
       <c r="G453" s="18">
         <v>877803</v>
@@ -11271,13 +11277,13 @@
         <v>8</v>
       </c>
       <c r="C454" s="16" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="D454" s="17" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="E454" s="16" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="F454" s="18">
         <v>35112</v>
@@ -11294,13 +11300,13 @@
         <v>8</v>
       </c>
       <c r="C455" s="16" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="D455" s="17" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="E455" s="16" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="F455" s="18">
         <v>35112</v>
@@ -11317,13 +11323,13 @@
         <v>8</v>
       </c>
       <c r="C456" s="16" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="D456" s="17" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="E456" s="16" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="F456" s="18">
         <v>35112</v>
@@ -11340,13 +11346,13 @@
         <v>8</v>
       </c>
       <c r="C457" s="16" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="D457" s="17" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="E457" s="16" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="F457" s="18">
         <v>35112</v>
@@ -11363,13 +11369,13 @@
         <v>8</v>
       </c>
       <c r="C458" s="16" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="D458" s="17" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="E458" s="16" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="F458" s="18">
         <v>35112</v>
@@ -11386,13 +11392,13 @@
         <v>8</v>
       </c>
       <c r="C459" s="16" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="D459" s="17" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="E459" s="16" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="F459" s="18">
         <v>35112</v>
@@ -11409,13 +11415,13 @@
         <v>8</v>
       </c>
       <c r="C460" s="16" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="D460" s="17" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="E460" s="16" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="F460" s="18">
         <v>35112</v>
@@ -11432,13 +11438,13 @@
         <v>8</v>
       </c>
       <c r="C461" s="16" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="D461" s="17" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="E461" s="16" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="F461" s="18">
         <v>35112</v>
@@ -11455,13 +11461,13 @@
         <v>8</v>
       </c>
       <c r="C462" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D462" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E462" s="16" t="s">
         <v>20</v>
-      </c>
-      <c r="D462" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E462" s="16" t="s">
-        <v>72</v>
       </c>
       <c r="F462" s="18">
         <v>35112</v>
@@ -11478,13 +11484,13 @@
         <v>8</v>
       </c>
       <c r="C463" s="16" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="D463" s="17" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="E463" s="16" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="F463" s="18">
         <v>35112</v>
@@ -11501,13 +11507,13 @@
         <v>8</v>
       </c>
       <c r="C464" s="16" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="D464" s="17" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="E464" s="16" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="F464" s="18">
         <v>35112</v>
@@ -11524,13 +11530,13 @@
         <v>8</v>
       </c>
       <c r="C465" s="16" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="D465" s="17" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="E465" s="16" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="F465" s="18">
         <v>35112</v>
@@ -11547,13 +11553,13 @@
         <v>8</v>
       </c>
       <c r="C466" s="16" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="D466" s="17" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="E466" s="16" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="F466" s="18">
         <v>35112</v>
@@ -11570,13 +11576,13 @@
         <v>8</v>
       </c>
       <c r="C467" s="16" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="D467" s="17" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="E467" s="16" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="F467" s="18">
         <v>35112</v>
@@ -11593,13 +11599,13 @@
         <v>8</v>
       </c>
       <c r="C468" s="16" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D468" s="17" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="E468" s="16" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="F468" s="18">
         <v>35112</v>
@@ -11616,13 +11622,13 @@
         <v>8</v>
       </c>
       <c r="C469" s="16" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="D469" s="17" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E469" s="16" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="F469" s="18">
         <v>35112</v>
@@ -11639,13 +11645,13 @@
         <v>8</v>
       </c>
       <c r="C470" s="16" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="D470" s="17" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="E470" s="16" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="F470" s="18">
         <v>35112</v>
@@ -11662,13 +11668,13 @@
         <v>8</v>
       </c>
       <c r="C471" s="16" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="D471" s="17" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="E471" s="16" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="F471" s="18">
         <v>35112</v>
@@ -11685,13 +11691,13 @@
         <v>8</v>
       </c>
       <c r="C472" s="16" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="D472" s="17" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="E472" s="16" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="F472" s="18">
         <v>35112</v>
@@ -11708,13 +11714,13 @@
         <v>8</v>
       </c>
       <c r="C473" s="16" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="D473" s="17" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="E473" s="16" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="F473" s="18">
         <v>35112</v>
@@ -11731,13 +11737,13 @@
         <v>8</v>
       </c>
       <c r="C474" s="16" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="D474" s="17" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="E474" s="16" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="F474" s="18">
         <v>35112</v>
@@ -11754,13 +11760,13 @@
         <v>8</v>
       </c>
       <c r="C475" s="16" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="D475" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E475" s="16" t="s">
         <v>33</v>
-      </c>
-      <c r="E475" s="16" t="s">
-        <v>73</v>
       </c>
       <c r="F475" s="18">
         <v>35112</v>
@@ -11777,13 +11783,13 @@
         <v>8</v>
       </c>
       <c r="C476" s="16" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="D476" s="17" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="E476" s="16" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="F476" s="18">
         <v>35112</v>
@@ -11800,13 +11806,13 @@
         <v>8</v>
       </c>
       <c r="C477" s="16" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="D477" s="17" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="E477" s="16" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="F477" s="18">
         <v>35112</v>
@@ -11823,13 +11829,13 @@
         <v>8</v>
       </c>
       <c r="C478" s="16" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="D478" s="17" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="E478" s="16" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="F478" s="18">
         <v>35112</v>
@@ -11846,13 +11852,13 @@
         <v>8</v>
       </c>
       <c r="C479" s="16" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="D479" s="17" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="E479" s="16" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="F479" s="18">
         <v>35112</v>
@@ -11869,13 +11875,13 @@
         <v>8</v>
       </c>
       <c r="C480" s="16" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="D480" s="17" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="E480" s="16" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="F480" s="18">
         <v>35112</v>
@@ -11892,13 +11898,13 @@
         <v>8</v>
       </c>
       <c r="C481" s="16" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="D481" s="17" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="E481" s="16" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="F481" s="18">
         <v>35112</v>
@@ -11915,13 +11921,13 @@
         <v>8</v>
       </c>
       <c r="C482" s="16" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="D482" s="17" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="E482" s="16" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="F482" s="18">
         <v>35112</v>
@@ -11938,13 +11944,13 @@
         <v>8</v>
       </c>
       <c r="C483" s="16" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="D483" s="17" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="E483" s="16" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="F483" s="18">
         <v>35112</v>
@@ -11961,13 +11967,13 @@
         <v>8</v>
       </c>
       <c r="C484" s="16" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="D484" s="17" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E484" s="16" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="F484" s="18">
         <v>35112</v>
@@ -11984,13 +11990,13 @@
         <v>8</v>
       </c>
       <c r="C485" s="16" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="D485" s="17" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="E485" s="16" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="F485" s="18">
         <v>35112</v>
@@ -12007,16 +12013,16 @@
         <v>8</v>
       </c>
       <c r="C486" s="16" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="D486" s="17" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="E486" s="16" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="F486" s="18">
-        <v>35112</v>
+        <v>32771</v>
       </c>
       <c r="G486" s="18">
         <v>877803</v>
@@ -12030,13 +12036,13 @@
         <v>8</v>
       </c>
       <c r="C487" s="16" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="D487" s="17" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="E487" s="16" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="F487" s="18">
         <v>35112</v>
@@ -12053,13 +12059,13 @@
         <v>8</v>
       </c>
       <c r="C488" s="16" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="D488" s="17" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="E488" s="16" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="F488" s="18">
         <v>35112</v>
@@ -12076,13 +12082,13 @@
         <v>8</v>
       </c>
       <c r="C489" s="16" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="D489" s="17" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="E489" s="16" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="F489" s="18">
         <v>35112</v>
@@ -12099,13 +12105,13 @@
         <v>8</v>
       </c>
       <c r="C490" s="16" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="D490" s="17" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="E490" s="16" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="F490" s="18">
         <v>35112</v>
@@ -12122,13 +12128,13 @@
         <v>8</v>
       </c>
       <c r="C491" s="16" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="D491" s="17" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="E491" s="16" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="F491" s="18">
         <v>35112</v>
@@ -12145,13 +12151,13 @@
         <v>8</v>
       </c>
       <c r="C492" s="16" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="D492" s="17" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="E492" s="16" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="F492" s="18">
         <v>35112</v>
@@ -12168,13 +12174,13 @@
         <v>8</v>
       </c>
       <c r="C493" s="16" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="D493" s="17" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="E493" s="16" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="F493" s="18">
         <v>35112</v>
@@ -12191,13 +12197,13 @@
         <v>8</v>
       </c>
       <c r="C494" s="16" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D494" s="17" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="E494" s="16" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="F494" s="18">
         <v>35112</v>
@@ -12214,13 +12220,13 @@
         <v>8</v>
       </c>
       <c r="C495" s="16" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="D495" s="17" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="E495" s="16" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="F495" s="18">
         <v>35112</v>
@@ -12237,13 +12243,13 @@
         <v>8</v>
       </c>
       <c r="C496" s="16" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="D496" s="17" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="E496" s="16" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="F496" s="18">
         <v>35112</v>
@@ -12260,13 +12266,13 @@
         <v>8</v>
       </c>
       <c r="C497" s="16" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="D497" s="17" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="E497" s="16" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="F497" s="18">
         <v>35112</v>
@@ -12283,13 +12289,13 @@
         <v>8</v>
       </c>
       <c r="C498" s="16" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="D498" s="17" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="E498" s="16" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="F498" s="18">
         <v>35112</v>
@@ -12306,13 +12312,13 @@
         <v>8</v>
       </c>
       <c r="C499" s="16" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="D499" s="17" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="E499" s="16" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="F499" s="18">
         <v>35112</v>
@@ -12329,13 +12335,13 @@
         <v>8</v>
       </c>
       <c r="C500" s="16" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="D500" s="17" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="E500" s="16" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="F500" s="18">
         <v>35112</v>
@@ -12352,13 +12358,13 @@
         <v>8</v>
       </c>
       <c r="C501" s="16" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="D501" s="17" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="E501" s="16" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="F501" s="18">
         <v>35112</v>
@@ -12375,13 +12381,13 @@
         <v>8</v>
       </c>
       <c r="C502" s="16" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="D502" s="17" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="E502" s="16" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="F502" s="18">
         <v>35112</v>
@@ -12398,13 +12404,13 @@
         <v>8</v>
       </c>
       <c r="C503" s="16" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="D503" s="17" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="E503" s="16" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="F503" s="18">
         <v>35112</v>
@@ -12421,16 +12427,16 @@
         <v>8</v>
       </c>
       <c r="C504" s="16" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="D504" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E504" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E504" s="16" t="s">
-        <v>75</v>
-      </c>
       <c r="F504" s="18">
-        <v>32771</v>
+        <v>35112</v>
       </c>
       <c r="G504" s="18">
         <v>877803</v>
@@ -12444,16 +12450,16 @@
         <v>8</v>
       </c>
       <c r="C505" s="16" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D505" s="17" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="E505" s="16" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="F505" s="18">
-        <v>32771</v>
+        <v>35112</v>
       </c>
       <c r="G505" s="18">
         <v>877803</v>
@@ -12467,16 +12473,16 @@
         <v>8</v>
       </c>
       <c r="C506" s="16" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="D506" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E506" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E506" s="16" t="s">
-        <v>75</v>
-      </c>
       <c r="F506" s="18">
-        <v>32771</v>
+        <v>35112</v>
       </c>
       <c r="G506" s="18">
         <v>877803</v>
@@ -12490,16 +12496,16 @@
         <v>8</v>
       </c>
       <c r="C507" s="16" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="D507" s="17" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="E507" s="16" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="F507" s="18">
-        <v>32771</v>
+        <v>35112</v>
       </c>
       <c r="G507" s="18">
         <v>877803</v>
@@ -12513,16 +12519,16 @@
         <v>8</v>
       </c>
       <c r="C508" s="16" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="D508" s="17" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="E508" s="16" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="F508" s="18">
-        <v>32771</v>
+        <v>35112</v>
       </c>
       <c r="G508" s="18">
         <v>877803</v>
@@ -12536,16 +12542,16 @@
         <v>8</v>
       </c>
       <c r="C509" s="16" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="D509" s="17" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="E509" s="16" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="F509" s="18">
-        <v>32771</v>
+        <v>35112</v>
       </c>
       <c r="G509" s="18">
         <v>877803</v>
@@ -12559,16 +12565,16 @@
         <v>8</v>
       </c>
       <c r="C510" s="16" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="D510" s="17" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="E510" s="16" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="F510" s="18">
-        <v>32771</v>
+        <v>35112</v>
       </c>
       <c r="G510" s="18">
         <v>877803</v>
@@ -12582,16 +12588,16 @@
         <v>8</v>
       </c>
       <c r="C511" s="16" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="D511" s="17" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="E511" s="16" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="F511" s="18">
-        <v>32771</v>
+        <v>35112</v>
       </c>
       <c r="G511" s="18">
         <v>877803</v>
@@ -12605,16 +12611,16 @@
         <v>8</v>
       </c>
       <c r="C512" s="16" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="D512" s="17" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="E512" s="16" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="F512" s="18">
-        <v>32771</v>
+        <v>35112</v>
       </c>
       <c r="G512" s="18">
         <v>877803</v>
@@ -12628,16 +12634,16 @@
         <v>8</v>
       </c>
       <c r="C513" s="16" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="D513" s="17" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="E513" s="16" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="F513" s="18">
-        <v>32771</v>
+        <v>35112</v>
       </c>
       <c r="G513" s="18">
         <v>877803</v>
@@ -12651,16 +12657,16 @@
         <v>8</v>
       </c>
       <c r="C514" s="16" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="D514" s="17" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="E514" s="16" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="F514" s="18">
-        <v>32771</v>
+        <v>35112</v>
       </c>
       <c r="G514" s="18">
         <v>877803</v>
@@ -12674,16 +12680,16 @@
         <v>8</v>
       </c>
       <c r="C515" s="16" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="D515" s="17" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="E515" s="16" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="F515" s="18">
-        <v>32771</v>
+        <v>35112</v>
       </c>
       <c r="G515" s="18">
         <v>877803</v>
@@ -12697,16 +12703,16 @@
         <v>8</v>
       </c>
       <c r="C516" s="16" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="D516" s="17" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="E516" s="16" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="F516" s="18">
-        <v>32771</v>
+        <v>35112</v>
       </c>
       <c r="G516" s="18">
         <v>877803</v>
@@ -12720,16 +12726,16 @@
         <v>8</v>
       </c>
       <c r="C517" s="16" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="D517" s="17" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="E517" s="16" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="F517" s="18">
-        <v>32771</v>
+        <v>35112</v>
       </c>
       <c r="G517" s="18">
         <v>877803</v>
@@ -12739,56 +12745,148 @@
       <c r="J517" s="20"/>
     </row>
     <row r="518" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B518" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C518" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D518" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E518" s="22" t="s">
+      <c r="B518" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C518" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D518" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="F518" s="24">
-        <v>32771</v>
-      </c>
-      <c r="G518" s="24">
-        <v>877803</v>
-      </c>
-      <c r="H518" s="25"/>
-      <c r="I518" s="25"/>
-      <c r="J518" s="26"/>
-    </row>
-    <row r="523" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B523" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="C523" s="32"/>
-      <c r="H523" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I523" s="1"/>
-      <c r="J523" s="1"/>
-    </row>
-    <row r="524" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B524" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="C524" s="32"/>
-      <c r="H524" s="1" t="s">
+      <c r="E518" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F518" s="18">
+        <v>35112</v>
+      </c>
+      <c r="G518" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H518" s="19"/>
+      <c r="I518" s="19"/>
+      <c r="J518" s="20"/>
+    </row>
+    <row r="519" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B519" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C519" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D519" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E519" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F519" s="18">
+        <v>37333</v>
+      </c>
+      <c r="G519" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H519" s="19"/>
+      <c r="I519" s="19"/>
+      <c r="J519" s="20"/>
+    </row>
+    <row r="520" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B520" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C520" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D520" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E520" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F520" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G520" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H520" s="19"/>
+      <c r="I520" s="19"/>
+      <c r="J520" s="20"/>
+    </row>
+    <row r="521" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B521" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C521" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D521" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E521" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F521" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G521" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H521" s="19"/>
+      <c r="I521" s="19"/>
+      <c r="J521" s="20"/>
+    </row>
+    <row r="522" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B522" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C522" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D522" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="E522" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F522" s="24">
+        <v>40000</v>
+      </c>
+      <c r="G522" s="24">
+        <v>1000000</v>
+      </c>
+      <c r="H522" s="25"/>
+      <c r="I522" s="25"/>
+      <c r="J522" s="26"/>
+    </row>
+    <row r="527" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B527" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C527" s="32"/>
+      <c r="H527" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I527" s="1"/>
+      <c r="J527" s="1"/>
+    </row>
+    <row r="528" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B528" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="I524" s="1"/>
-      <c r="J524" s="1"/>
+      <c r="C528" s="32"/>
+      <c r="H528" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I528" s="1"/>
+      <c r="J528" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B524:C524"/>
-    <mergeCell ref="B523:C523"/>
-    <mergeCell ref="H524:J524"/>
-    <mergeCell ref="H523:J523"/>
+    <mergeCell ref="B528:C528"/>
+    <mergeCell ref="B527:C527"/>
+    <mergeCell ref="H528:J528"/>
+    <mergeCell ref="H527:J527"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9007382260.xlsx
+++ b/Data/EC/NIT-9007382260.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4249E6FA-95D4-491A-8593-AD36CA2F4DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{33AAE143-CC98-4226-BDD3-3B8D450E3082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F01D48E9-787F-487E-9354-73790845C846}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CC9CE025-9B91-44B3-871B-146D0E0C827D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2048" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2032" uniqueCount="87">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,133 +65,19 @@
     <t>CC</t>
   </si>
   <si>
-    <t>1128047733</t>
-  </si>
-  <si>
-    <t>ALEJANDRO SEGOVIA MONTES</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
     <t>8854970</t>
   </si>
   <si>
     <t>JORGE ANTONIO ESCORCIA PACHECO</t>
   </si>
   <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
     <t>2007</t>
-  </si>
-  <si>
-    <t>1041974552</t>
-  </si>
-  <si>
-    <t>GLORIA ESTHER GOURIYU</t>
   </si>
   <si>
     <t>1143380887</t>
   </si>
   <si>
     <t>IVAN DARIO DE LA ROSA MARTINEZ</t>
-  </si>
-  <si>
-    <t>1128044650</t>
-  </si>
-  <si>
-    <t>DAYRON DE JESUS HERRERA BOHORQUEZ</t>
   </si>
   <si>
     <t>84455015</t>
@@ -266,10 +152,118 @@
     <t>BRAYAN MAURICIO PEREZ GARZON</t>
   </si>
   <si>
-    <t>1002245785</t>
+    <t>2008</t>
   </si>
   <si>
-    <t>JANNIA SALGADO BENITEZ</t>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>1041974552</t>
+  </si>
+  <si>
+    <t>GLORIA ESTHER GOURIYU</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>1128047733</t>
+  </si>
+  <si>
+    <t>ALEJANDRO SEGOVIA MONTES</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>1128044650</t>
+  </si>
+  <si>
+    <t>DAYRON DE JESUS HERRERA BOHORQUEZ</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -368,7 +362,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -381,9 +377,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -583,23 +577,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -627,10 +621,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -683,7 +677,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F7F7187-FB62-D84C-0994-5B7D90CAC4D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96B451BF-F614-F077-6DDD-E6D16D631F42}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1034,8 +1028,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4C836BB-46AD-4E25-98EA-935C37D7C723}">
-  <dimension ref="B2:J528"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99037331-CC96-435A-A893-E3F8AC85C218}">
+  <dimension ref="B2:J524"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1059,7 +1053,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1104,7 +1098,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1136,12 +1130,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>17783554</v>
+        <v>17626221</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1152,14 +1146,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C13" s="5">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F13" s="5">
         <v>33</v>
@@ -1189,13 +1183,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I15" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>83</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1212,7 +1206,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>32771</v>
+        <v>35112</v>
       </c>
       <c r="G16" s="18">
         <v>877803</v>
@@ -1226,13 +1220,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>35112</v>
@@ -1249,13 +1243,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
         <v>35112</v>
@@ -1272,13 +1266,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F19" s="18">
         <v>35112</v>
@@ -1295,13 +1289,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F20" s="18">
         <v>35112</v>
@@ -1318,13 +1312,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F21" s="18">
         <v>35112</v>
@@ -1341,13 +1335,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F22" s="18">
         <v>35112</v>
@@ -1364,13 +1358,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F23" s="18">
         <v>35112</v>
@@ -1387,13 +1381,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F24" s="18">
         <v>35112</v>
@@ -1410,13 +1404,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F25" s="18">
         <v>35112</v>
@@ -1433,13 +1427,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F26" s="18">
         <v>35112</v>
@@ -1456,13 +1450,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F27" s="18">
         <v>35112</v>
@@ -1479,13 +1473,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F28" s="18">
         <v>35112</v>
@@ -1502,13 +1496,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F29" s="18">
         <v>35112</v>
@@ -1531,7 +1525,7 @@
         <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F30" s="18">
         <v>35112</v>
@@ -1548,13 +1542,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F31" s="18">
         <v>35112</v>
@@ -1571,13 +1565,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="F32" s="18">
         <v>35112</v>
@@ -1594,13 +1588,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F33" s="18">
         <v>35112</v>
@@ -1617,13 +1611,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F34" s="18">
         <v>35112</v>
@@ -1640,13 +1634,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F35" s="18">
         <v>35112</v>
@@ -1663,13 +1657,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F36" s="18">
         <v>35112</v>
@@ -1686,13 +1680,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F37" s="18">
         <v>35112</v>
@@ -1709,13 +1703,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F38" s="18">
         <v>35112</v>
@@ -1732,13 +1726,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F39" s="18">
         <v>35112</v>
@@ -1755,13 +1749,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F40" s="18">
         <v>35112</v>
@@ -1778,13 +1772,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F41" s="18">
         <v>35112</v>
@@ -1801,13 +1795,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F42" s="18">
         <v>35112</v>
@@ -1824,16 +1818,16 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E43" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D43" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F43" s="18">
-        <v>32771</v>
+        <v>35112</v>
       </c>
       <c r="G43" s="18">
         <v>877803</v>
@@ -1847,13 +1841,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="16" t="s">
         <v>39</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>12</v>
       </c>
       <c r="F44" s="18">
         <v>35112</v>
@@ -1870,13 +1864,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D45" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="16" t="s">
         <v>39</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>13</v>
       </c>
       <c r="F45" s="18">
         <v>35112</v>
@@ -1893,13 +1887,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D46" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" s="16" t="s">
         <v>39</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F46" s="18">
         <v>35112</v>
@@ -1916,13 +1910,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="D47" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" s="16" t="s">
         <v>39</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F47" s="18">
         <v>35112</v>
@@ -1939,13 +1933,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D48" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="16" t="s">
         <v>39</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>16</v>
       </c>
       <c r="F48" s="18">
         <v>35112</v>
@@ -1962,13 +1956,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D49" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E49" s="16" t="s">
         <v>39</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>17</v>
       </c>
       <c r="F49" s="18">
         <v>35112</v>
@@ -1985,13 +1979,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D50" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" s="16" t="s">
         <v>39</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>18</v>
       </c>
       <c r="F50" s="18">
         <v>35112</v>
@@ -2008,13 +2002,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D51" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" s="16" t="s">
         <v>39</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="F51" s="18">
         <v>35112</v>
@@ -2031,13 +2025,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D52" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E52" s="16" t="s">
         <v>39</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>20</v>
       </c>
       <c r="F52" s="18">
         <v>35112</v>
@@ -2054,13 +2048,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D53" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E53" s="16" t="s">
         <v>39</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>21</v>
       </c>
       <c r="F53" s="18">
         <v>35112</v>
@@ -2077,13 +2071,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D54" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E54" s="16" t="s">
         <v>39</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>22</v>
       </c>
       <c r="F54" s="18">
         <v>35112</v>
@@ -2100,13 +2094,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D55" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E55" s="16" t="s">
         <v>39</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="F55" s="18">
         <v>35112</v>
@@ -2123,13 +2117,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D56" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E56" s="16" t="s">
         <v>39</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>24</v>
       </c>
       <c r="F56" s="18">
         <v>35112</v>
@@ -2146,13 +2140,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D57" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E57" s="16" t="s">
         <v>39</v>
-      </c>
-      <c r="E57" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="F57" s="18">
         <v>35112</v>
@@ -2169,13 +2163,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="F58" s="18">
         <v>35112</v>
@@ -2192,13 +2186,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F59" s="18">
         <v>35112</v>
@@ -2215,13 +2209,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F60" s="18">
         <v>35112</v>
@@ -2238,13 +2232,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F61" s="18">
         <v>35112</v>
@@ -2261,13 +2255,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F62" s="18">
         <v>35112</v>
@@ -2284,13 +2278,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F63" s="18">
         <v>35112</v>
@@ -2307,13 +2301,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F64" s="18">
         <v>35112</v>
@@ -2330,13 +2324,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F65" s="18">
         <v>35112</v>
@@ -2353,13 +2347,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F66" s="18">
         <v>35112</v>
@@ -2376,13 +2370,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F67" s="18">
         <v>35112</v>
@@ -2399,13 +2393,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F68" s="18">
         <v>35112</v>
@@ -2422,13 +2416,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F69" s="18">
         <v>35112</v>
@@ -2445,10 +2439,10 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E70" s="16" t="s">
         <v>40</v>
@@ -2468,13 +2462,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F71" s="18">
         <v>35112</v>
@@ -2491,13 +2485,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F72" s="18">
         <v>35112</v>
@@ -2514,19 +2508,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F73" s="18">
         <v>35112</v>
       </c>
       <c r="G73" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2537,13 +2531,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F74" s="18">
         <v>35112</v>
@@ -2560,13 +2554,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F75" s="18">
         <v>35112</v>
@@ -2583,10 +2577,10 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="E76" s="16" t="s">
         <v>41</v>
@@ -2606,16 +2600,16 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="F77" s="18">
-        <v>32771</v>
+        <v>35112</v>
       </c>
       <c r="G77" s="18">
         <v>877803</v>
@@ -2629,13 +2623,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F78" s="18">
         <v>35112</v>
@@ -2652,13 +2646,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="F79" s="18">
         <v>35112</v>
@@ -2675,13 +2669,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="F80" s="18">
         <v>35112</v>
@@ -2698,13 +2692,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="F81" s="18">
         <v>35112</v>
@@ -2721,13 +2715,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="F82" s="18">
         <v>35112</v>
@@ -2744,13 +2738,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="F83" s="18">
         <v>35112</v>
@@ -2767,13 +2761,13 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="F84" s="18">
         <v>35112</v>
@@ -2790,13 +2784,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="F85" s="18">
         <v>35112</v>
@@ -2813,13 +2807,13 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="F86" s="18">
         <v>35112</v>
@@ -2836,13 +2830,13 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F87" s="18">
         <v>35112</v>
@@ -2859,13 +2853,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="F88" s="18">
         <v>35112</v>
@@ -2882,13 +2876,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="F89" s="18">
         <v>35112</v>
@@ -2905,13 +2899,13 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="F90" s="18">
         <v>35112</v>
@@ -2928,13 +2922,13 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="F91" s="18">
         <v>35112</v>
@@ -2951,13 +2945,13 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="F92" s="18">
         <v>35112</v>
@@ -2974,13 +2968,13 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F93" s="18">
         <v>35112</v>
@@ -2997,13 +2991,13 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F94" s="18">
         <v>35112</v>
@@ -3020,13 +3014,13 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="F95" s="18">
         <v>35112</v>
@@ -3043,13 +3037,13 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F96" s="18">
         <v>35112</v>
@@ -3066,13 +3060,13 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F97" s="18">
         <v>35112</v>
@@ -3089,13 +3083,13 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="F98" s="18">
         <v>35112</v>
@@ -3112,13 +3106,13 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F99" s="18">
         <v>35112</v>
@@ -3135,13 +3129,13 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="F100" s="18">
         <v>35112</v>
@@ -3158,13 +3152,13 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F101" s="18">
         <v>35112</v>
@@ -3181,13 +3175,13 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="F102" s="18">
         <v>35112</v>
@@ -3204,13 +3198,13 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="F103" s="18">
         <v>35112</v>
@@ -3227,13 +3221,13 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F104" s="18">
         <v>35112</v>
@@ -3250,13 +3244,13 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F105" s="18">
         <v>35112</v>
@@ -3273,13 +3267,13 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F106" s="18">
         <v>35112</v>
@@ -3296,13 +3290,13 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F107" s="18">
         <v>35112</v>
@@ -3319,13 +3313,13 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F108" s="18">
         <v>35112</v>
@@ -3342,13 +3336,13 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F109" s="18">
         <v>35112</v>
@@ -3365,16 +3359,16 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="F110" s="18">
-        <v>32771</v>
+        <v>35112</v>
       </c>
       <c r="G110" s="18">
         <v>877803</v>
@@ -3388,13 +3382,13 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="F111" s="18">
         <v>35112</v>
@@ -3411,13 +3405,13 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="F112" s="18">
         <v>35112</v>
@@ -3434,13 +3428,13 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="F113" s="18">
         <v>35112</v>
@@ -3457,13 +3451,13 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="F114" s="18">
         <v>35112</v>
@@ -3480,13 +3474,13 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="F115" s="18">
         <v>35112</v>
@@ -3503,13 +3497,13 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="F116" s="18">
         <v>35112</v>
@@ -3526,13 +3520,13 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="F117" s="18">
         <v>35112</v>
@@ -3549,13 +3543,13 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="F118" s="18">
         <v>35112</v>
@@ -3572,13 +3566,13 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="F119" s="18">
         <v>35112</v>
@@ -3595,13 +3589,13 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="F120" s="18">
         <v>35112</v>
@@ -3618,13 +3612,13 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="F121" s="18">
         <v>35112</v>
@@ -3641,13 +3635,13 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="F122" s="18">
         <v>35112</v>
@@ -3664,13 +3658,13 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="F123" s="18">
         <v>35112</v>
@@ -3687,13 +3681,13 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="F124" s="18">
         <v>35112</v>
@@ -3710,13 +3704,13 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="F125" s="18">
         <v>35112</v>
@@ -3733,13 +3727,13 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="F126" s="18">
         <v>35112</v>
@@ -3756,13 +3750,13 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="F127" s="18">
         <v>35112</v>
@@ -3779,13 +3773,13 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="F128" s="18">
         <v>35112</v>
@@ -3802,13 +3796,13 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="F129" s="18">
         <v>35112</v>
@@ -3825,13 +3819,13 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="F130" s="18">
         <v>35112</v>
@@ -3848,13 +3842,13 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="F131" s="18">
         <v>35112</v>
@@ -3871,13 +3865,13 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="F132" s="18">
         <v>35112</v>
@@ -3894,16 +3888,16 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="F133" s="18">
-        <v>32771</v>
+        <v>35112</v>
       </c>
       <c r="G133" s="18">
         <v>877803</v>
@@ -3917,13 +3911,13 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="F134" s="18">
         <v>35112</v>
@@ -3940,13 +3934,13 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="F135" s="18">
         <v>35112</v>
@@ -3963,13 +3957,13 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="F136" s="18">
         <v>35112</v>
@@ -3986,13 +3980,13 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="F137" s="18">
         <v>35112</v>
@@ -4009,13 +4003,13 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="F138" s="18">
         <v>35112</v>
@@ -4032,13 +4026,13 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="F139" s="18">
         <v>35112</v>
@@ -4055,13 +4049,13 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="F140" s="18">
         <v>35112</v>
@@ -4078,13 +4072,13 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="F141" s="18">
         <v>35112</v>
@@ -4101,13 +4095,13 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="F142" s="18">
         <v>35112</v>
@@ -4124,13 +4118,13 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="F143" s="18">
         <v>35112</v>
@@ -4147,13 +4141,13 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="F144" s="18">
         <v>35112</v>
@@ -4170,13 +4164,13 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="F145" s="18">
         <v>35112</v>
@@ -4193,13 +4187,13 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="F146" s="18">
         <v>35112</v>
@@ -4216,13 +4210,13 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F147" s="18">
         <v>35112</v>
@@ -4239,13 +4233,13 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="F148" s="18">
         <v>35112</v>
@@ -4262,13 +4256,13 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="F149" s="18">
         <v>35112</v>
@@ -4285,13 +4279,13 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="F150" s="18">
         <v>35112</v>
@@ -4308,13 +4302,13 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="F151" s="18">
         <v>35112</v>
@@ -4331,13 +4325,13 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F152" s="18">
         <v>35112</v>
@@ -4354,13 +4348,13 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="F153" s="18">
         <v>35112</v>
@@ -4377,13 +4371,13 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F154" s="18">
         <v>35112</v>
@@ -4400,13 +4394,13 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="F155" s="18">
         <v>35112</v>
@@ -4423,13 +4417,13 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="F156" s="18">
         <v>35112</v>
@@ -4446,13 +4440,13 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="F157" s="18">
         <v>35112</v>
@@ -4469,13 +4463,13 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F158" s="18">
         <v>35112</v>
@@ -4492,13 +4486,13 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="F159" s="18">
         <v>35112</v>
@@ -4515,13 +4509,13 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F160" s="18">
         <v>35112</v>
@@ -4538,13 +4532,13 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F161" s="18">
         <v>35112</v>
@@ -4567,7 +4561,7 @@
         <v>53</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F162" s="18">
         <v>35112</v>
@@ -4584,13 +4578,13 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F163" s="18">
         <v>35112</v>
@@ -4607,13 +4601,13 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F164" s="18">
         <v>35112</v>
@@ -4630,13 +4624,13 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F165" s="18">
         <v>35112</v>
@@ -4653,13 +4647,13 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="F166" s="18">
         <v>35112</v>
@@ -4676,13 +4670,13 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="F167" s="18">
         <v>35112</v>
@@ -4699,13 +4693,13 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="F168" s="18">
         <v>35112</v>
@@ -4722,13 +4716,13 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="F169" s="18">
         <v>35112</v>
@@ -4745,13 +4739,13 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="F170" s="18">
         <v>35112</v>
@@ -4768,13 +4762,13 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="F171" s="18">
         <v>35112</v>
@@ -4791,13 +4785,13 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="F172" s="18">
         <v>35112</v>
@@ -4814,13 +4808,13 @@
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="F173" s="18">
         <v>35112</v>
@@ -4837,13 +4831,13 @@
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="F174" s="18">
         <v>35112</v>
@@ -4860,13 +4854,13 @@
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D175" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E175" s="16" t="s">
         <v>54</v>
-      </c>
-      <c r="D175" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E175" s="16" t="s">
-        <v>28</v>
       </c>
       <c r="F175" s="18">
         <v>35112</v>
@@ -4883,13 +4877,13 @@
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D176" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E176" s="16" t="s">
         <v>54</v>
-      </c>
-      <c r="D176" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E176" s="16" t="s">
-        <v>29</v>
       </c>
       <c r="F176" s="18">
         <v>35112</v>
@@ -4906,13 +4900,13 @@
         <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D177" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E177" s="16" t="s">
         <v>54</v>
-      </c>
-      <c r="D177" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E177" s="16" t="s">
-        <v>30</v>
       </c>
       <c r="F177" s="18">
         <v>35112</v>
@@ -4929,13 +4923,13 @@
         <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D178" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E178" s="16" t="s">
         <v>54</v>
-      </c>
-      <c r="D178" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E178" s="16" t="s">
-        <v>31</v>
       </c>
       <c r="F178" s="18">
         <v>35112</v>
@@ -4952,13 +4946,13 @@
         <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D179" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E179" s="16" t="s">
         <v>54</v>
-      </c>
-      <c r="D179" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E179" s="16" t="s">
-        <v>32</v>
       </c>
       <c r="F179" s="18">
         <v>35112</v>
@@ -4975,13 +4969,13 @@
         <v>8</v>
       </c>
       <c r="C180" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D180" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E180" s="16" t="s">
         <v>54</v>
-      </c>
-      <c r="D180" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E180" s="16" t="s">
-        <v>33</v>
       </c>
       <c r="F180" s="18">
         <v>35112</v>
@@ -4998,13 +4992,13 @@
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D181" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E181" s="16" t="s">
         <v>54</v>
-      </c>
-      <c r="D181" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E181" s="16" t="s">
-        <v>34</v>
       </c>
       <c r="F181" s="18">
         <v>35112</v>
@@ -5021,13 +5015,13 @@
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D182" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E182" s="16" t="s">
         <v>54</v>
-      </c>
-      <c r="D182" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E182" s="16" t="s">
-        <v>35</v>
       </c>
       <c r="F182" s="18">
         <v>35112</v>
@@ -5044,13 +5038,13 @@
         <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D183" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E183" s="16" t="s">
         <v>54</v>
-      </c>
-      <c r="D183" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E183" s="16" t="s">
-        <v>36</v>
       </c>
       <c r="F183" s="18">
         <v>35112</v>
@@ -5067,13 +5061,13 @@
         <v>8</v>
       </c>
       <c r="C184" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D184" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E184" s="16" t="s">
         <v>54</v>
-      </c>
-      <c r="D184" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E184" s="16" t="s">
-        <v>37</v>
       </c>
       <c r="F184" s="18">
         <v>35112</v>
@@ -5090,13 +5084,13 @@
         <v>8</v>
       </c>
       <c r="C185" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D185" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E185" s="16" t="s">
         <v>54</v>
-      </c>
-      <c r="D185" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E185" s="16" t="s">
-        <v>40</v>
       </c>
       <c r="F185" s="18">
         <v>35112</v>
@@ -5113,13 +5107,13 @@
         <v>8</v>
       </c>
       <c r="C186" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D186" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E186" s="16" t="s">
         <v>54</v>
-      </c>
-      <c r="D186" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E186" s="16" t="s">
-        <v>41</v>
       </c>
       <c r="F186" s="18">
         <v>35112</v>
@@ -5136,13 +5130,13 @@
         <v>8</v>
       </c>
       <c r="C187" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D187" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E187" s="16" t="s">
         <v>54</v>
-      </c>
-      <c r="D187" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E187" s="16" t="s">
-        <v>42</v>
       </c>
       <c r="F187" s="18">
         <v>35112</v>
@@ -5159,13 +5153,13 @@
         <v>8</v>
       </c>
       <c r="C188" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D188" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E188" s="16" t="s">
         <v>54</v>
-      </c>
-      <c r="D188" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E188" s="16" t="s">
-        <v>43</v>
       </c>
       <c r="F188" s="18">
         <v>35112</v>
@@ -5182,13 +5176,13 @@
         <v>8</v>
       </c>
       <c r="C189" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D189" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E189" s="16" t="s">
         <v>54</v>
-      </c>
-      <c r="D189" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E189" s="16" t="s">
-        <v>44</v>
       </c>
       <c r="F189" s="18">
         <v>35112</v>
@@ -5205,13 +5199,13 @@
         <v>8</v>
       </c>
       <c r="C190" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D190" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E190" s="16" t="s">
         <v>54</v>
-      </c>
-      <c r="D190" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E190" s="16" t="s">
-        <v>45</v>
       </c>
       <c r="F190" s="18">
         <v>35112</v>
@@ -5228,16 +5222,16 @@
         <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="F191" s="18">
-        <v>32771</v>
+        <v>35112</v>
       </c>
       <c r="G191" s="18">
         <v>877803</v>
@@ -5251,13 +5245,13 @@
         <v>8</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="F192" s="18">
         <v>35112</v>
@@ -5274,13 +5268,13 @@
         <v>8</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="F193" s="18">
         <v>35112</v>
@@ -5297,13 +5291,13 @@
         <v>8</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="F194" s="18">
         <v>35112</v>
@@ -5320,13 +5314,13 @@
         <v>8</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="F195" s="18">
         <v>35112</v>
@@ -5343,13 +5337,13 @@
         <v>8</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="F196" s="18">
         <v>35112</v>
@@ -5366,13 +5360,13 @@
         <v>8</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="F197" s="18">
         <v>35112</v>
@@ -5389,13 +5383,13 @@
         <v>8</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="F198" s="18">
         <v>35112</v>
@@ -5412,13 +5406,13 @@
         <v>8</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="F199" s="18">
         <v>35112</v>
@@ -5435,13 +5429,13 @@
         <v>8</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="E200" s="16" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="F200" s="18">
         <v>35112</v>
@@ -5458,13 +5452,13 @@
         <v>8</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="F201" s="18">
         <v>35112</v>
@@ -5481,13 +5475,13 @@
         <v>8</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="F202" s="18">
         <v>35112</v>
@@ -5504,13 +5498,13 @@
         <v>8</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="F203" s="18">
         <v>35112</v>
@@ -5527,13 +5521,13 @@
         <v>8</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="F204" s="18">
         <v>35112</v>
@@ -5550,13 +5544,13 @@
         <v>8</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="E205" s="16" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="F205" s="18">
         <v>35112</v>
@@ -5573,13 +5567,13 @@
         <v>8</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="E206" s="16" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="F206" s="18">
         <v>35112</v>
@@ -5596,13 +5590,13 @@
         <v>8</v>
       </c>
       <c r="C207" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D207" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E207" s="16" t="s">
         <v>56</v>
-      </c>
-      <c r="D207" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E207" s="16" t="s">
-        <v>27</v>
       </c>
       <c r="F207" s="18">
         <v>35112</v>
@@ -5619,13 +5613,13 @@
         <v>8</v>
       </c>
       <c r="C208" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D208" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E208" s="16" t="s">
         <v>56</v>
-      </c>
-      <c r="D208" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E208" s="16" t="s">
-        <v>28</v>
       </c>
       <c r="F208" s="18">
         <v>35112</v>
@@ -5642,13 +5636,13 @@
         <v>8</v>
       </c>
       <c r="C209" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D209" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E209" s="16" t="s">
         <v>56</v>
-      </c>
-      <c r="D209" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E209" s="16" t="s">
-        <v>29</v>
       </c>
       <c r="F209" s="18">
         <v>35112</v>
@@ -5665,13 +5659,13 @@
         <v>8</v>
       </c>
       <c r="C210" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D210" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E210" s="16" t="s">
         <v>56</v>
-      </c>
-      <c r="D210" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E210" s="16" t="s">
-        <v>30</v>
       </c>
       <c r="F210" s="18">
         <v>35112</v>
@@ -5688,13 +5682,13 @@
         <v>8</v>
       </c>
       <c r="C211" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D211" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E211" s="16" t="s">
         <v>56</v>
-      </c>
-      <c r="D211" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E211" s="16" t="s">
-        <v>31</v>
       </c>
       <c r="F211" s="18">
         <v>35112</v>
@@ -5711,13 +5705,13 @@
         <v>8</v>
       </c>
       <c r="C212" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D212" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E212" s="16" t="s">
         <v>56</v>
-      </c>
-      <c r="D212" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E212" s="16" t="s">
-        <v>32</v>
       </c>
       <c r="F212" s="18">
         <v>35112</v>
@@ -5734,13 +5728,13 @@
         <v>8</v>
       </c>
       <c r="C213" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D213" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E213" s="16" t="s">
         <v>56</v>
-      </c>
-      <c r="D213" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E213" s="16" t="s">
-        <v>33</v>
       </c>
       <c r="F213" s="18">
         <v>35112</v>
@@ -5757,13 +5751,13 @@
         <v>8</v>
       </c>
       <c r="C214" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D214" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E214" s="16" t="s">
         <v>56</v>
-      </c>
-      <c r="D214" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E214" s="16" t="s">
-        <v>34</v>
       </c>
       <c r="F214" s="18">
         <v>35112</v>
@@ -5780,13 +5774,13 @@
         <v>8</v>
       </c>
       <c r="C215" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D215" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E215" s="16" t="s">
         <v>56</v>
-      </c>
-      <c r="D215" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E215" s="16" t="s">
-        <v>35</v>
       </c>
       <c r="F215" s="18">
         <v>35112</v>
@@ -5803,13 +5797,13 @@
         <v>8</v>
       </c>
       <c r="C216" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D216" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E216" s="16" t="s">
         <v>56</v>
-      </c>
-      <c r="D216" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E216" s="16" t="s">
-        <v>36</v>
       </c>
       <c r="F216" s="18">
         <v>35112</v>
@@ -5826,13 +5820,13 @@
         <v>8</v>
       </c>
       <c r="C217" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D217" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E217" s="16" t="s">
         <v>56</v>
-      </c>
-      <c r="D217" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E217" s="16" t="s">
-        <v>37</v>
       </c>
       <c r="F217" s="18">
         <v>35112</v>
@@ -5849,13 +5843,13 @@
         <v>8</v>
       </c>
       <c r="C218" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D218" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E218" s="16" t="s">
         <v>56</v>
-      </c>
-      <c r="D218" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E218" s="16" t="s">
-        <v>40</v>
       </c>
       <c r="F218" s="18">
         <v>35112</v>
@@ -5872,13 +5866,13 @@
         <v>8</v>
       </c>
       <c r="C219" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D219" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E219" s="16" t="s">
         <v>56</v>
-      </c>
-      <c r="D219" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E219" s="16" t="s">
-        <v>42</v>
       </c>
       <c r="F219" s="18">
         <v>35112</v>
@@ -5895,13 +5889,13 @@
         <v>8</v>
       </c>
       <c r="C220" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D220" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E220" s="16" t="s">
         <v>56</v>
-      </c>
-      <c r="D220" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E220" s="16" t="s">
-        <v>43</v>
       </c>
       <c r="F220" s="18">
         <v>35112</v>
@@ -5918,13 +5912,13 @@
         <v>8</v>
       </c>
       <c r="C221" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D221" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E221" s="16" t="s">
         <v>56</v>
-      </c>
-      <c r="D221" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E221" s="16" t="s">
-        <v>44</v>
       </c>
       <c r="F221" s="18">
         <v>35112</v>
@@ -5941,13 +5935,13 @@
         <v>8</v>
       </c>
       <c r="C222" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D222" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E222" s="16" t="s">
         <v>56</v>
-      </c>
-      <c r="D222" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E222" s="16" t="s">
-        <v>45</v>
       </c>
       <c r="F222" s="18">
         <v>35112</v>
@@ -5964,16 +5958,16 @@
         <v>8</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="E223" s="16" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="F223" s="18">
-        <v>32771</v>
+        <v>35112</v>
       </c>
       <c r="G223" s="18">
         <v>877803</v>
@@ -5987,13 +5981,13 @@
         <v>8</v>
       </c>
       <c r="C224" s="16" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="D224" s="17" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="E224" s="16" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="F224" s="18">
         <v>35112</v>
@@ -6010,13 +6004,13 @@
         <v>8</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="E225" s="16" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="F225" s="18">
         <v>35112</v>
@@ -6033,13 +6027,13 @@
         <v>8</v>
       </c>
       <c r="C226" s="16" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E226" s="16" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="F226" s="18">
         <v>35112</v>
@@ -6056,13 +6050,13 @@
         <v>8</v>
       </c>
       <c r="C227" s="16" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="D227" s="17" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="E227" s="16" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="F227" s="18">
         <v>35112</v>
@@ -6079,13 +6073,13 @@
         <v>8</v>
       </c>
       <c r="C228" s="16" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="D228" s="17" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="E228" s="16" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="F228" s="18">
         <v>35112</v>
@@ -6102,13 +6096,13 @@
         <v>8</v>
       </c>
       <c r="C229" s="16" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="E229" s="16" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="F229" s="18">
         <v>35112</v>
@@ -6125,13 +6119,13 @@
         <v>8</v>
       </c>
       <c r="C230" s="16" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="D230" s="17" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="E230" s="16" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="F230" s="18">
         <v>35112</v>
@@ -6148,13 +6142,13 @@
         <v>8</v>
       </c>
       <c r="C231" s="16" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="D231" s="17" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="E231" s="16" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="F231" s="18">
         <v>35112</v>
@@ -6171,13 +6165,13 @@
         <v>8</v>
       </c>
       <c r="C232" s="16" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="D232" s="17" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="E232" s="16" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="F232" s="18">
         <v>35112</v>
@@ -6194,13 +6188,13 @@
         <v>8</v>
       </c>
       <c r="C233" s="16" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="E233" s="16" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="F233" s="18">
         <v>35112</v>
@@ -6217,13 +6211,13 @@
         <v>8</v>
       </c>
       <c r="C234" s="16" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="D234" s="17" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="E234" s="16" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="F234" s="18">
         <v>35112</v>
@@ -6240,13 +6234,13 @@
         <v>8</v>
       </c>
       <c r="C235" s="16" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="D235" s="17" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="E235" s="16" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="F235" s="18">
         <v>35112</v>
@@ -6263,13 +6257,13 @@
         <v>8</v>
       </c>
       <c r="C236" s="16" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="D236" s="17" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="E236" s="16" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="F236" s="18">
         <v>35112</v>
@@ -6286,13 +6280,13 @@
         <v>8</v>
       </c>
       <c r="C237" s="16" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="D237" s="17" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="E237" s="16" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="F237" s="18">
         <v>35112</v>
@@ -6309,13 +6303,13 @@
         <v>8</v>
       </c>
       <c r="C238" s="16" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D238" s="17" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="E238" s="16" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="F238" s="18">
         <v>35112</v>
@@ -6332,13 +6326,13 @@
         <v>8</v>
       </c>
       <c r="C239" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D239" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E239" s="16" t="s">
         <v>58</v>
-      </c>
-      <c r="D239" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E239" s="16" t="s">
-        <v>27</v>
       </c>
       <c r="F239" s="18">
         <v>35112</v>
@@ -6355,13 +6349,13 @@
         <v>8</v>
       </c>
       <c r="C240" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D240" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E240" s="16" t="s">
         <v>58</v>
-      </c>
-      <c r="D240" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E240" s="16" t="s">
-        <v>28</v>
       </c>
       <c r="F240" s="18">
         <v>35112</v>
@@ -6378,13 +6372,13 @@
         <v>8</v>
       </c>
       <c r="C241" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D241" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E241" s="16" t="s">
         <v>58</v>
-      </c>
-      <c r="D241" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E241" s="16" t="s">
-        <v>29</v>
       </c>
       <c r="F241" s="18">
         <v>35112</v>
@@ -6401,13 +6395,13 @@
         <v>8</v>
       </c>
       <c r="C242" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D242" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E242" s="16" t="s">
         <v>58</v>
-      </c>
-      <c r="D242" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E242" s="16" t="s">
-        <v>30</v>
       </c>
       <c r="F242" s="18">
         <v>35112</v>
@@ -6424,13 +6418,13 @@
         <v>8</v>
       </c>
       <c r="C243" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D243" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E243" s="16" t="s">
         <v>58</v>
-      </c>
-      <c r="D243" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E243" s="16" t="s">
-        <v>31</v>
       </c>
       <c r="F243" s="18">
         <v>35112</v>
@@ -6447,13 +6441,13 @@
         <v>8</v>
       </c>
       <c r="C244" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D244" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E244" s="16" t="s">
         <v>58</v>
-      </c>
-      <c r="D244" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E244" s="16" t="s">
-        <v>32</v>
       </c>
       <c r="F244" s="18">
         <v>35112</v>
@@ -6470,13 +6464,13 @@
         <v>8</v>
       </c>
       <c r="C245" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D245" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E245" s="16" t="s">
         <v>58</v>
-      </c>
-      <c r="D245" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E245" s="16" t="s">
-        <v>33</v>
       </c>
       <c r="F245" s="18">
         <v>35112</v>
@@ -6493,13 +6487,13 @@
         <v>8</v>
       </c>
       <c r="C246" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D246" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E246" s="16" t="s">
         <v>58</v>
-      </c>
-      <c r="D246" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E246" s="16" t="s">
-        <v>34</v>
       </c>
       <c r="F246" s="18">
         <v>35112</v>
@@ -6516,13 +6510,13 @@
         <v>8</v>
       </c>
       <c r="C247" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D247" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E247" s="16" t="s">
         <v>58</v>
-      </c>
-      <c r="D247" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E247" s="16" t="s">
-        <v>35</v>
       </c>
       <c r="F247" s="18">
         <v>35112</v>
@@ -6539,13 +6533,13 @@
         <v>8</v>
       </c>
       <c r="C248" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D248" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E248" s="16" t="s">
         <v>58</v>
-      </c>
-      <c r="D248" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E248" s="16" t="s">
-        <v>36</v>
       </c>
       <c r="F248" s="18">
         <v>35112</v>
@@ -6562,13 +6556,13 @@
         <v>8</v>
       </c>
       <c r="C249" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D249" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E249" s="16" t="s">
         <v>58</v>
-      </c>
-      <c r="D249" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E249" s="16" t="s">
-        <v>37</v>
       </c>
       <c r="F249" s="18">
         <v>35112</v>
@@ -6585,13 +6579,13 @@
         <v>8</v>
       </c>
       <c r="C250" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D250" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E250" s="16" t="s">
         <v>58</v>
-      </c>
-      <c r="D250" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E250" s="16" t="s">
-        <v>40</v>
       </c>
       <c r="F250" s="18">
         <v>35112</v>
@@ -6608,13 +6602,13 @@
         <v>8</v>
       </c>
       <c r="C251" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D251" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E251" s="16" t="s">
         <v>58</v>
-      </c>
-      <c r="D251" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E251" s="16" t="s">
-        <v>42</v>
       </c>
       <c r="F251" s="18">
         <v>35112</v>
@@ -6631,13 +6625,13 @@
         <v>8</v>
       </c>
       <c r="C252" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D252" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E252" s="16" t="s">
         <v>58</v>
-      </c>
-      <c r="D252" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E252" s="16" t="s">
-        <v>43</v>
       </c>
       <c r="F252" s="18">
         <v>35112</v>
@@ -6654,13 +6648,13 @@
         <v>8</v>
       </c>
       <c r="C253" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D253" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E253" s="16" t="s">
         <v>58</v>
-      </c>
-      <c r="D253" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E253" s="16" t="s">
-        <v>44</v>
       </c>
       <c r="F253" s="18">
         <v>35112</v>
@@ -6677,13 +6671,13 @@
         <v>8</v>
       </c>
       <c r="C254" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D254" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E254" s="16" t="s">
         <v>58</v>
-      </c>
-      <c r="D254" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E254" s="16" t="s">
-        <v>45</v>
       </c>
       <c r="F254" s="18">
         <v>35112</v>
@@ -6700,16 +6694,16 @@
         <v>8</v>
       </c>
       <c r="C255" s="16" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D255" s="17" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E255" s="16" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="F255" s="18">
-        <v>32771</v>
+        <v>35112</v>
       </c>
       <c r="G255" s="18">
         <v>877803</v>
@@ -6723,13 +6717,13 @@
         <v>8</v>
       </c>
       <c r="C256" s="16" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="D256" s="17" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="E256" s="16" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="F256" s="18">
         <v>35112</v>
@@ -6746,13 +6740,13 @@
         <v>8</v>
       </c>
       <c r="C257" s="16" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="D257" s="17" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="E257" s="16" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="F257" s="18">
         <v>35112</v>
@@ -6769,13 +6763,13 @@
         <v>8</v>
       </c>
       <c r="C258" s="16" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D258" s="17" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E258" s="16" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="F258" s="18">
         <v>35112</v>
@@ -6792,13 +6786,13 @@
         <v>8</v>
       </c>
       <c r="C259" s="16" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="D259" s="17" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="E259" s="16" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="F259" s="18">
         <v>35112</v>
@@ -6815,13 +6809,13 @@
         <v>8</v>
       </c>
       <c r="C260" s="16" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="D260" s="17" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="E260" s="16" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="F260" s="18">
         <v>35112</v>
@@ -6838,13 +6832,13 @@
         <v>8</v>
       </c>
       <c r="C261" s="16" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="D261" s="17" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="E261" s="16" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="F261" s="18">
         <v>35112</v>
@@ -6861,13 +6855,13 @@
         <v>8</v>
       </c>
       <c r="C262" s="16" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D262" s="17" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="E262" s="16" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="F262" s="18">
         <v>35112</v>
@@ -6884,13 +6878,13 @@
         <v>8</v>
       </c>
       <c r="C263" s="16" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="D263" s="17" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="E263" s="16" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="F263" s="18">
         <v>35112</v>
@@ -6907,13 +6901,13 @@
         <v>8</v>
       </c>
       <c r="C264" s="16" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="D264" s="17" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="E264" s="16" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="F264" s="18">
         <v>35112</v>
@@ -6930,13 +6924,13 @@
         <v>8</v>
       </c>
       <c r="C265" s="16" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="D265" s="17" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="E265" s="16" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="F265" s="18">
         <v>35112</v>
@@ -6953,13 +6947,13 @@
         <v>8</v>
       </c>
       <c r="C266" s="16" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="D266" s="17" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="E266" s="16" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="F266" s="18">
         <v>35112</v>
@@ -6976,13 +6970,13 @@
         <v>8</v>
       </c>
       <c r="C267" s="16" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D267" s="17" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="E267" s="16" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="F267" s="18">
         <v>35112</v>
@@ -6999,13 +6993,13 @@
         <v>8</v>
       </c>
       <c r="C268" s="16" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="D268" s="17" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="E268" s="16" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="F268" s="18">
         <v>35112</v>
@@ -7022,13 +7016,13 @@
         <v>8</v>
       </c>
       <c r="C269" s="16" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="D269" s="17" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="E269" s="16" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="F269" s="18">
         <v>35112</v>
@@ -7045,13 +7039,13 @@
         <v>8</v>
       </c>
       <c r="C270" s="16" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="D270" s="17" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="E270" s="16" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="F270" s="18">
         <v>35112</v>
@@ -7068,13 +7062,13 @@
         <v>8</v>
       </c>
       <c r="C271" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D271" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E271" s="16" t="s">
         <v>60</v>
-      </c>
-      <c r="D271" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E271" s="16" t="s">
-        <v>27</v>
       </c>
       <c r="F271" s="18">
         <v>35112</v>
@@ -7091,13 +7085,13 @@
         <v>8</v>
       </c>
       <c r="C272" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D272" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E272" s="16" t="s">
         <v>60</v>
-      </c>
-      <c r="D272" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E272" s="16" t="s">
-        <v>28</v>
       </c>
       <c r="F272" s="18">
         <v>35112</v>
@@ -7114,13 +7108,13 @@
         <v>8</v>
       </c>
       <c r="C273" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D273" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E273" s="16" t="s">
         <v>60</v>
-      </c>
-      <c r="D273" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E273" s="16" t="s">
-        <v>29</v>
       </c>
       <c r="F273" s="18">
         <v>35112</v>
@@ -7137,13 +7131,13 @@
         <v>8</v>
       </c>
       <c r="C274" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D274" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E274" s="16" t="s">
         <v>60</v>
-      </c>
-      <c r="D274" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E274" s="16" t="s">
-        <v>30</v>
       </c>
       <c r="F274" s="18">
         <v>35112</v>
@@ -7160,13 +7154,13 @@
         <v>8</v>
       </c>
       <c r="C275" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D275" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E275" s="16" t="s">
         <v>60</v>
-      </c>
-      <c r="D275" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E275" s="16" t="s">
-        <v>31</v>
       </c>
       <c r="F275" s="18">
         <v>35112</v>
@@ -7183,13 +7177,13 @@
         <v>8</v>
       </c>
       <c r="C276" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D276" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E276" s="16" t="s">
         <v>60</v>
-      </c>
-      <c r="D276" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E276" s="16" t="s">
-        <v>32</v>
       </c>
       <c r="F276" s="18">
         <v>35112</v>
@@ -7206,13 +7200,13 @@
         <v>8</v>
       </c>
       <c r="C277" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D277" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E277" s="16" t="s">
         <v>60</v>
-      </c>
-      <c r="D277" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E277" s="16" t="s">
-        <v>33</v>
       </c>
       <c r="F277" s="18">
         <v>35112</v>
@@ -7229,13 +7223,13 @@
         <v>8</v>
       </c>
       <c r="C278" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D278" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E278" s="16" t="s">
         <v>60</v>
-      </c>
-      <c r="D278" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E278" s="16" t="s">
-        <v>34</v>
       </c>
       <c r="F278" s="18">
         <v>35112</v>
@@ -7252,13 +7246,13 @@
         <v>8</v>
       </c>
       <c r="C279" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D279" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E279" s="16" t="s">
         <v>60</v>
-      </c>
-      <c r="D279" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E279" s="16" t="s">
-        <v>35</v>
       </c>
       <c r="F279" s="18">
         <v>35112</v>
@@ -7275,13 +7269,13 @@
         <v>8</v>
       </c>
       <c r="C280" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D280" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E280" s="16" t="s">
         <v>60</v>
-      </c>
-      <c r="D280" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E280" s="16" t="s">
-        <v>36</v>
       </c>
       <c r="F280" s="18">
         <v>35112</v>
@@ -7298,13 +7292,13 @@
         <v>8</v>
       </c>
       <c r="C281" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D281" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E281" s="16" t="s">
         <v>60</v>
-      </c>
-      <c r="D281" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E281" s="16" t="s">
-        <v>37</v>
       </c>
       <c r="F281" s="18">
         <v>35112</v>
@@ -7321,13 +7315,13 @@
         <v>8</v>
       </c>
       <c r="C282" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D282" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E282" s="16" t="s">
         <v>60</v>
-      </c>
-      <c r="D282" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E282" s="16" t="s">
-        <v>40</v>
       </c>
       <c r="F282" s="18">
         <v>35112</v>
@@ -7344,13 +7338,13 @@
         <v>8</v>
       </c>
       <c r="C283" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D283" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E283" s="16" t="s">
         <v>60</v>
-      </c>
-      <c r="D283" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E283" s="16" t="s">
-        <v>41</v>
       </c>
       <c r="F283" s="18">
         <v>35112</v>
@@ -7367,13 +7361,13 @@
         <v>8</v>
       </c>
       <c r="C284" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D284" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E284" s="16" t="s">
         <v>60</v>
-      </c>
-      <c r="D284" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E284" s="16" t="s">
-        <v>42</v>
       </c>
       <c r="F284" s="18">
         <v>35112</v>
@@ -7390,13 +7384,13 @@
         <v>8</v>
       </c>
       <c r="C285" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D285" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E285" s="16" t="s">
         <v>60</v>
-      </c>
-      <c r="D285" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E285" s="16" t="s">
-        <v>43</v>
       </c>
       <c r="F285" s="18">
         <v>35112</v>
@@ -7413,13 +7407,13 @@
         <v>8</v>
       </c>
       <c r="C286" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D286" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E286" s="16" t="s">
         <v>60</v>
-      </c>
-      <c r="D286" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E286" s="16" t="s">
-        <v>44</v>
       </c>
       <c r="F286" s="18">
         <v>35112</v>
@@ -7436,13 +7430,13 @@
         <v>8</v>
       </c>
       <c r="C287" s="16" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D287" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E287" s="16" t="s">
         <v>61</v>
-      </c>
-      <c r="E287" s="16" t="s">
-        <v>45</v>
       </c>
       <c r="F287" s="18">
         <v>35112</v>
@@ -7459,16 +7453,16 @@
         <v>8</v>
       </c>
       <c r="C288" s="16" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="D288" s="17" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="E288" s="16" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="F288" s="18">
-        <v>32771</v>
+        <v>35112</v>
       </c>
       <c r="G288" s="18">
         <v>877803</v>
@@ -7482,13 +7476,13 @@
         <v>8</v>
       </c>
       <c r="C289" s="16" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="D289" s="17" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="E289" s="16" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="F289" s="18">
         <v>35112</v>
@@ -7505,13 +7499,13 @@
         <v>8</v>
       </c>
       <c r="C290" s="16" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D290" s="17" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E290" s="16" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="F290" s="18">
         <v>35112</v>
@@ -7528,13 +7522,13 @@
         <v>8</v>
       </c>
       <c r="C291" s="16" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="D291" s="17" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="E291" s="16" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="F291" s="18">
         <v>35112</v>
@@ -7551,13 +7545,13 @@
         <v>8</v>
       </c>
       <c r="C292" s="16" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="D292" s="17" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="E292" s="16" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="F292" s="18">
         <v>35112</v>
@@ -7574,13 +7568,13 @@
         <v>8</v>
       </c>
       <c r="C293" s="16" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="D293" s="17" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="E293" s="16" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="F293" s="18">
         <v>35112</v>
@@ -7597,13 +7591,13 @@
         <v>8</v>
       </c>
       <c r="C294" s="16" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="D294" s="17" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="E294" s="16" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="F294" s="18">
         <v>35112</v>
@@ -7620,13 +7614,13 @@
         <v>8</v>
       </c>
       <c r="C295" s="16" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="D295" s="17" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="E295" s="16" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="F295" s="18">
         <v>35112</v>
@@ -7643,13 +7637,13 @@
         <v>8</v>
       </c>
       <c r="C296" s="16" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="D296" s="17" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="E296" s="16" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="F296" s="18">
         <v>35112</v>
@@ -7666,13 +7660,13 @@
         <v>8</v>
       </c>
       <c r="C297" s="16" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="D297" s="17" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="E297" s="16" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="F297" s="18">
         <v>35112</v>
@@ -7689,13 +7683,13 @@
         <v>8</v>
       </c>
       <c r="C298" s="16" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="D298" s="17" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="E298" s="16" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="F298" s="18">
         <v>35112</v>
@@ -7712,13 +7706,13 @@
         <v>8</v>
       </c>
       <c r="C299" s="16" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="D299" s="17" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="E299" s="16" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="F299" s="18">
         <v>35112</v>
@@ -7735,13 +7729,13 @@
         <v>8</v>
       </c>
       <c r="C300" s="16" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="D300" s="17" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="E300" s="16" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="F300" s="18">
         <v>35112</v>
@@ -7758,13 +7752,13 @@
         <v>8</v>
       </c>
       <c r="C301" s="16" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="D301" s="17" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E301" s="16" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="F301" s="18">
         <v>35112</v>
@@ -7781,13 +7775,13 @@
         <v>8</v>
       </c>
       <c r="C302" s="16" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="D302" s="17" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="E302" s="16" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="F302" s="18">
         <v>35112</v>
@@ -7804,13 +7798,13 @@
         <v>8</v>
       </c>
       <c r="C303" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D303" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E303" s="16" t="s">
         <v>62</v>
-      </c>
-      <c r="D303" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E303" s="16" t="s">
-        <v>26</v>
       </c>
       <c r="F303" s="18">
         <v>35112</v>
@@ -7827,13 +7821,13 @@
         <v>8</v>
       </c>
       <c r="C304" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D304" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E304" s="16" t="s">
         <v>62</v>
-      </c>
-      <c r="D304" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E304" s="16" t="s">
-        <v>27</v>
       </c>
       <c r="F304" s="18">
         <v>35112</v>
@@ -7850,13 +7844,13 @@
         <v>8</v>
       </c>
       <c r="C305" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D305" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E305" s="16" t="s">
         <v>62</v>
-      </c>
-      <c r="D305" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E305" s="16" t="s">
-        <v>28</v>
       </c>
       <c r="F305" s="18">
         <v>35112</v>
@@ -7873,13 +7867,13 @@
         <v>8</v>
       </c>
       <c r="C306" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D306" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E306" s="16" t="s">
         <v>62</v>
-      </c>
-      <c r="D306" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E306" s="16" t="s">
-        <v>29</v>
       </c>
       <c r="F306" s="18">
         <v>35112</v>
@@ -7896,13 +7890,13 @@
         <v>8</v>
       </c>
       <c r="C307" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D307" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E307" s="16" t="s">
         <v>62</v>
-      </c>
-      <c r="D307" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E307" s="16" t="s">
-        <v>30</v>
       </c>
       <c r="F307" s="18">
         <v>35112</v>
@@ -7919,13 +7913,13 @@
         <v>8</v>
       </c>
       <c r="C308" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D308" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E308" s="16" t="s">
         <v>62</v>
-      </c>
-      <c r="D308" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E308" s="16" t="s">
-        <v>31</v>
       </c>
       <c r="F308" s="18">
         <v>35112</v>
@@ -7942,13 +7936,13 @@
         <v>8</v>
       </c>
       <c r="C309" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D309" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E309" s="16" t="s">
         <v>62</v>
-      </c>
-      <c r="D309" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E309" s="16" t="s">
-        <v>32</v>
       </c>
       <c r="F309" s="18">
         <v>35112</v>
@@ -7965,13 +7959,13 @@
         <v>8</v>
       </c>
       <c r="C310" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D310" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E310" s="16" t="s">
         <v>62</v>
-      </c>
-      <c r="D310" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E310" s="16" t="s">
-        <v>33</v>
       </c>
       <c r="F310" s="18">
         <v>35112</v>
@@ -7988,13 +7982,13 @@
         <v>8</v>
       </c>
       <c r="C311" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D311" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E311" s="16" t="s">
         <v>62</v>
-      </c>
-      <c r="D311" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E311" s="16" t="s">
-        <v>34</v>
       </c>
       <c r="F311" s="18">
         <v>35112</v>
@@ -8011,13 +8005,13 @@
         <v>8</v>
       </c>
       <c r="C312" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D312" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E312" s="16" t="s">
         <v>62</v>
-      </c>
-      <c r="D312" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E312" s="16" t="s">
-        <v>35</v>
       </c>
       <c r="F312" s="18">
         <v>35112</v>
@@ -8034,13 +8028,13 @@
         <v>8</v>
       </c>
       <c r="C313" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D313" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E313" s="16" t="s">
         <v>62</v>
-      </c>
-      <c r="D313" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E313" s="16" t="s">
-        <v>36</v>
       </c>
       <c r="F313" s="18">
         <v>35112</v>
@@ -8057,13 +8051,13 @@
         <v>8</v>
       </c>
       <c r="C314" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D314" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E314" s="16" t="s">
         <v>62</v>
-      </c>
-      <c r="D314" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E314" s="16" t="s">
-        <v>37</v>
       </c>
       <c r="F314" s="18">
         <v>35112</v>
@@ -8080,13 +8074,13 @@
         <v>8</v>
       </c>
       <c r="C315" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D315" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E315" s="16" t="s">
         <v>62</v>
-      </c>
-      <c r="D315" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E315" s="16" t="s">
-        <v>40</v>
       </c>
       <c r="F315" s="18">
         <v>35112</v>
@@ -8103,13 +8097,13 @@
         <v>8</v>
       </c>
       <c r="C316" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D316" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E316" s="16" t="s">
         <v>62</v>
-      </c>
-      <c r="D316" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E316" s="16" t="s">
-        <v>41</v>
       </c>
       <c r="F316" s="18">
         <v>35112</v>
@@ -8126,13 +8120,13 @@
         <v>8</v>
       </c>
       <c r="C317" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D317" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E317" s="16" t="s">
         <v>62</v>
-      </c>
-      <c r="D317" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E317" s="16" t="s">
-        <v>42</v>
       </c>
       <c r="F317" s="18">
         <v>35112</v>
@@ -8149,13 +8143,13 @@
         <v>8</v>
       </c>
       <c r="C318" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D318" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E318" s="16" t="s">
         <v>62</v>
-      </c>
-      <c r="D318" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E318" s="16" t="s">
-        <v>43</v>
       </c>
       <c r="F318" s="18">
         <v>35112</v>
@@ -8172,13 +8166,13 @@
         <v>8</v>
       </c>
       <c r="C319" s="16" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D319" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E319" s="16" t="s">
         <v>63</v>
-      </c>
-      <c r="E319" s="16" t="s">
-        <v>44</v>
       </c>
       <c r="F319" s="18">
         <v>35112</v>
@@ -8195,13 +8189,13 @@
         <v>8</v>
       </c>
       <c r="C320" s="16" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="D320" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E320" s="16" t="s">
         <v>63</v>
-      </c>
-      <c r="E320" s="16" t="s">
-        <v>45</v>
       </c>
       <c r="F320" s="18">
         <v>35112</v>
@@ -8218,16 +8212,16 @@
         <v>8</v>
       </c>
       <c r="C321" s="16" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D321" s="17" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E321" s="16" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="F321" s="18">
-        <v>32771</v>
+        <v>35112</v>
       </c>
       <c r="G321" s="18">
         <v>877803</v>
@@ -8241,13 +8235,13 @@
         <v>8</v>
       </c>
       <c r="C322" s="16" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D322" s="17" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E322" s="16" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="F322" s="18">
         <v>35112</v>
@@ -8264,13 +8258,13 @@
         <v>8</v>
       </c>
       <c r="C323" s="16" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="D323" s="17" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="E323" s="16" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="F323" s="18">
         <v>35112</v>
@@ -8287,13 +8281,13 @@
         <v>8</v>
       </c>
       <c r="C324" s="16" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="D324" s="17" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="E324" s="16" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="F324" s="18">
         <v>35112</v>
@@ -8310,13 +8304,13 @@
         <v>8</v>
       </c>
       <c r="C325" s="16" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="D325" s="17" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="E325" s="16" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="F325" s="18">
         <v>35112</v>
@@ -8333,13 +8327,13 @@
         <v>8</v>
       </c>
       <c r="C326" s="16" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="D326" s="17" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="E326" s="16" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="F326" s="18">
         <v>35112</v>
@@ -8356,13 +8350,13 @@
         <v>8</v>
       </c>
       <c r="C327" s="16" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="D327" s="17" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="E327" s="16" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="F327" s="18">
         <v>35112</v>
@@ -8379,13 +8373,13 @@
         <v>8</v>
       </c>
       <c r="C328" s="16" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="D328" s="17" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="E328" s="16" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="F328" s="18">
         <v>35112</v>
@@ -8402,13 +8396,13 @@
         <v>8</v>
       </c>
       <c r="C329" s="16" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="D329" s="17" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="E329" s="16" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="F329" s="18">
         <v>35112</v>
@@ -8425,13 +8419,13 @@
         <v>8</v>
       </c>
       <c r="C330" s="16" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="D330" s="17" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="E330" s="16" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="F330" s="18">
         <v>35112</v>
@@ -8448,13 +8442,13 @@
         <v>8</v>
       </c>
       <c r="C331" s="16" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="D331" s="17" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="E331" s="16" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="F331" s="18">
         <v>35112</v>
@@ -8471,13 +8465,13 @@
         <v>8</v>
       </c>
       <c r="C332" s="16" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="D332" s="17" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="E332" s="16" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="F332" s="18">
         <v>35112</v>
@@ -8494,13 +8488,13 @@
         <v>8</v>
       </c>
       <c r="C333" s="16" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="D333" s="17" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="E333" s="16" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="F333" s="18">
         <v>35112</v>
@@ -8517,13 +8511,13 @@
         <v>8</v>
       </c>
       <c r="C334" s="16" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="D334" s="17" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="E334" s="16" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="F334" s="18">
         <v>35112</v>
@@ -8540,13 +8534,13 @@
         <v>8</v>
       </c>
       <c r="C335" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D335" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E335" s="16" t="s">
         <v>64</v>
-      </c>
-      <c r="D335" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E335" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="F335" s="18">
         <v>35112</v>
@@ -8563,13 +8557,13 @@
         <v>8</v>
       </c>
       <c r="C336" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D336" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E336" s="16" t="s">
         <v>64</v>
-      </c>
-      <c r="D336" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E336" s="16" t="s">
-        <v>26</v>
       </c>
       <c r="F336" s="18">
         <v>35112</v>
@@ -8586,13 +8580,13 @@
         <v>8</v>
       </c>
       <c r="C337" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D337" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E337" s="16" t="s">
         <v>64</v>
-      </c>
-      <c r="D337" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E337" s="16" t="s">
-        <v>27</v>
       </c>
       <c r="F337" s="18">
         <v>35112</v>
@@ -8609,13 +8603,13 @@
         <v>8</v>
       </c>
       <c r="C338" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D338" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E338" s="16" t="s">
         <v>64</v>
-      </c>
-      <c r="D338" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E338" s="16" t="s">
-        <v>28</v>
       </c>
       <c r="F338" s="18">
         <v>35112</v>
@@ -8632,13 +8626,13 @@
         <v>8</v>
       </c>
       <c r="C339" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D339" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E339" s="16" t="s">
         <v>64</v>
-      </c>
-      <c r="D339" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E339" s="16" t="s">
-        <v>29</v>
       </c>
       <c r="F339" s="18">
         <v>35112</v>
@@ -8655,13 +8649,13 @@
         <v>8</v>
       </c>
       <c r="C340" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D340" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E340" s="16" t="s">
         <v>64</v>
-      </c>
-      <c r="D340" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E340" s="16" t="s">
-        <v>30</v>
       </c>
       <c r="F340" s="18">
         <v>35112</v>
@@ -8678,13 +8672,13 @@
         <v>8</v>
       </c>
       <c r="C341" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D341" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E341" s="16" t="s">
         <v>64</v>
-      </c>
-      <c r="D341" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E341" s="16" t="s">
-        <v>31</v>
       </c>
       <c r="F341" s="18">
         <v>35112</v>
@@ -8701,13 +8695,13 @@
         <v>8</v>
       </c>
       <c r="C342" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D342" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E342" s="16" t="s">
         <v>64</v>
-      </c>
-      <c r="D342" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E342" s="16" t="s">
-        <v>32</v>
       </c>
       <c r="F342" s="18">
         <v>35112</v>
@@ -8724,13 +8718,13 @@
         <v>8</v>
       </c>
       <c r="C343" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D343" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E343" s="16" t="s">
         <v>64</v>
-      </c>
-      <c r="D343" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E343" s="16" t="s">
-        <v>33</v>
       </c>
       <c r="F343" s="18">
         <v>35112</v>
@@ -8747,13 +8741,13 @@
         <v>8</v>
       </c>
       <c r="C344" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D344" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E344" s="16" t="s">
         <v>64</v>
-      </c>
-      <c r="D344" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E344" s="16" t="s">
-        <v>34</v>
       </c>
       <c r="F344" s="18">
         <v>35112</v>
@@ -8770,13 +8764,13 @@
         <v>8</v>
       </c>
       <c r="C345" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D345" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E345" s="16" t="s">
         <v>64</v>
-      </c>
-      <c r="D345" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E345" s="16" t="s">
-        <v>35</v>
       </c>
       <c r="F345" s="18">
         <v>35112</v>
@@ -8793,13 +8787,13 @@
         <v>8</v>
       </c>
       <c r="C346" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D346" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E346" s="16" t="s">
         <v>64</v>
-      </c>
-      <c r="D346" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E346" s="16" t="s">
-        <v>36</v>
       </c>
       <c r="F346" s="18">
         <v>35112</v>
@@ -8816,13 +8810,13 @@
         <v>8</v>
       </c>
       <c r="C347" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D347" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E347" s="16" t="s">
         <v>64</v>
-      </c>
-      <c r="D347" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E347" s="16" t="s">
-        <v>37</v>
       </c>
       <c r="F347" s="18">
         <v>35112</v>
@@ -8839,13 +8833,13 @@
         <v>8</v>
       </c>
       <c r="C348" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D348" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E348" s="16" t="s">
         <v>64</v>
-      </c>
-      <c r="D348" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E348" s="16" t="s">
-        <v>40</v>
       </c>
       <c r="F348" s="18">
         <v>35112</v>
@@ -8862,13 +8856,13 @@
         <v>8</v>
       </c>
       <c r="C349" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D349" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E349" s="16" t="s">
         <v>64</v>
-      </c>
-      <c r="D349" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E349" s="16" t="s">
-        <v>41</v>
       </c>
       <c r="F349" s="18">
         <v>35112</v>
@@ -8885,13 +8879,13 @@
         <v>8</v>
       </c>
       <c r="C350" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D350" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E350" s="16" t="s">
         <v>64</v>
-      </c>
-      <c r="D350" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E350" s="16" t="s">
-        <v>42</v>
       </c>
       <c r="F350" s="18">
         <v>35112</v>
@@ -8908,13 +8902,13 @@
         <v>8</v>
       </c>
       <c r="C351" s="16" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="D351" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E351" s="16" t="s">
         <v>65</v>
-      </c>
-      <c r="E351" s="16" t="s">
-        <v>43</v>
       </c>
       <c r="F351" s="18">
         <v>35112</v>
@@ -8931,13 +8925,13 @@
         <v>8</v>
       </c>
       <c r="C352" s="16" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D352" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E352" s="16" t="s">
         <v>65</v>
-      </c>
-      <c r="E352" s="16" t="s">
-        <v>44</v>
       </c>
       <c r="F352" s="18">
         <v>35112</v>
@@ -8954,13 +8948,13 @@
         <v>8</v>
       </c>
       <c r="C353" s="16" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D353" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E353" s="16" t="s">
         <v>65</v>
-      </c>
-      <c r="E353" s="16" t="s">
-        <v>45</v>
       </c>
       <c r="F353" s="18">
         <v>35112</v>
@@ -8977,16 +8971,16 @@
         <v>8</v>
       </c>
       <c r="C354" s="16" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="D354" s="17" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="E354" s="16" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="F354" s="18">
-        <v>32771</v>
+        <v>35112</v>
       </c>
       <c r="G354" s="18">
         <v>877803</v>
@@ -9000,13 +8994,13 @@
         <v>8</v>
       </c>
       <c r="C355" s="16" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="D355" s="17" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="E355" s="16" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="F355" s="18">
         <v>35112</v>
@@ -9023,13 +9017,13 @@
         <v>8</v>
       </c>
       <c r="C356" s="16" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="D356" s="17" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="E356" s="16" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="F356" s="18">
         <v>35112</v>
@@ -9046,13 +9040,13 @@
         <v>8</v>
       </c>
       <c r="C357" s="16" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="D357" s="17" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="E357" s="16" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="F357" s="18">
         <v>35112</v>
@@ -9069,13 +9063,13 @@
         <v>8</v>
       </c>
       <c r="C358" s="16" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="D358" s="17" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="E358" s="16" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="F358" s="18">
         <v>35112</v>
@@ -9092,13 +9086,13 @@
         <v>8</v>
       </c>
       <c r="C359" s="16" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="D359" s="17" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="E359" s="16" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="F359" s="18">
         <v>35112</v>
@@ -9115,13 +9109,13 @@
         <v>8</v>
       </c>
       <c r="C360" s="16" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="D360" s="17" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="E360" s="16" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="F360" s="18">
         <v>35112</v>
@@ -9138,13 +9132,13 @@
         <v>8</v>
       </c>
       <c r="C361" s="16" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="D361" s="17" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="E361" s="16" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="F361" s="18">
         <v>35112</v>
@@ -9161,13 +9155,13 @@
         <v>8</v>
       </c>
       <c r="C362" s="16" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="D362" s="17" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="E362" s="16" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="F362" s="18">
         <v>35112</v>
@@ -9184,13 +9178,13 @@
         <v>8</v>
       </c>
       <c r="C363" s="16" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="D363" s="17" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="E363" s="16" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="F363" s="18">
         <v>35112</v>
@@ -9207,13 +9201,13 @@
         <v>8</v>
       </c>
       <c r="C364" s="16" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="D364" s="17" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="E364" s="16" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="F364" s="18">
         <v>35112</v>
@@ -9230,13 +9224,13 @@
         <v>8</v>
       </c>
       <c r="C365" s="16" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="D365" s="17" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="E365" s="16" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="F365" s="18">
         <v>35112</v>
@@ -9253,13 +9247,13 @@
         <v>8</v>
       </c>
       <c r="C366" s="16" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="D366" s="17" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E366" s="16" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="F366" s="18">
         <v>35112</v>
@@ -9276,13 +9270,13 @@
         <v>8</v>
       </c>
       <c r="C367" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D367" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E367" s="16" t="s">
         <v>66</v>
-      </c>
-      <c r="D367" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E367" s="16" t="s">
-        <v>24</v>
       </c>
       <c r="F367" s="18">
         <v>35112</v>
@@ -9299,13 +9293,13 @@
         <v>8</v>
       </c>
       <c r="C368" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D368" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E368" s="16" t="s">
         <v>66</v>
-      </c>
-      <c r="D368" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E368" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="F368" s="18">
         <v>35112</v>
@@ -9322,13 +9316,13 @@
         <v>8</v>
       </c>
       <c r="C369" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D369" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E369" s="16" t="s">
         <v>66</v>
-      </c>
-      <c r="D369" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E369" s="16" t="s">
-        <v>26</v>
       </c>
       <c r="F369" s="18">
         <v>35112</v>
@@ -9345,13 +9339,13 @@
         <v>8</v>
       </c>
       <c r="C370" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D370" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E370" s="16" t="s">
         <v>66</v>
-      </c>
-      <c r="D370" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E370" s="16" t="s">
-        <v>27</v>
       </c>
       <c r="F370" s="18">
         <v>35112</v>
@@ -9368,13 +9362,13 @@
         <v>8</v>
       </c>
       <c r="C371" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D371" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E371" s="16" t="s">
         <v>66</v>
-      </c>
-      <c r="D371" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E371" s="16" t="s">
-        <v>28</v>
       </c>
       <c r="F371" s="18">
         <v>35112</v>
@@ -9391,13 +9385,13 @@
         <v>8</v>
       </c>
       <c r="C372" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D372" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E372" s="16" t="s">
         <v>66</v>
-      </c>
-      <c r="D372" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E372" s="16" t="s">
-        <v>29</v>
       </c>
       <c r="F372" s="18">
         <v>35112</v>
@@ -9414,13 +9408,13 @@
         <v>8</v>
       </c>
       <c r="C373" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D373" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E373" s="16" t="s">
         <v>66</v>
-      </c>
-      <c r="D373" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E373" s="16" t="s">
-        <v>30</v>
       </c>
       <c r="F373" s="18">
         <v>35112</v>
@@ -9437,13 +9431,13 @@
         <v>8</v>
       </c>
       <c r="C374" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D374" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E374" s="16" t="s">
         <v>66</v>
-      </c>
-      <c r="D374" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E374" s="16" t="s">
-        <v>31</v>
       </c>
       <c r="F374" s="18">
         <v>35112</v>
@@ -9460,13 +9454,13 @@
         <v>8</v>
       </c>
       <c r="C375" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D375" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E375" s="16" t="s">
         <v>66</v>
-      </c>
-      <c r="D375" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E375" s="16" t="s">
-        <v>32</v>
       </c>
       <c r="F375" s="18">
         <v>35112</v>
@@ -9483,13 +9477,13 @@
         <v>8</v>
       </c>
       <c r="C376" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D376" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E376" s="16" t="s">
         <v>66</v>
-      </c>
-      <c r="D376" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E376" s="16" t="s">
-        <v>33</v>
       </c>
       <c r="F376" s="18">
         <v>35112</v>
@@ -9506,13 +9500,13 @@
         <v>8</v>
       </c>
       <c r="C377" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D377" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E377" s="16" t="s">
         <v>66</v>
-      </c>
-      <c r="D377" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E377" s="16" t="s">
-        <v>34</v>
       </c>
       <c r="F377" s="18">
         <v>35112</v>
@@ -9529,13 +9523,13 @@
         <v>8</v>
       </c>
       <c r="C378" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D378" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E378" s="16" t="s">
         <v>66</v>
-      </c>
-      <c r="D378" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E378" s="16" t="s">
-        <v>35</v>
       </c>
       <c r="F378" s="18">
         <v>35112</v>
@@ -9552,13 +9546,13 @@
         <v>8</v>
       </c>
       <c r="C379" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D379" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E379" s="16" t="s">
         <v>66</v>
-      </c>
-      <c r="D379" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E379" s="16" t="s">
-        <v>36</v>
       </c>
       <c r="F379" s="18">
         <v>35112</v>
@@ -9575,13 +9569,13 @@
         <v>8</v>
       </c>
       <c r="C380" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D380" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E380" s="16" t="s">
         <v>66</v>
-      </c>
-      <c r="D380" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E380" s="16" t="s">
-        <v>37</v>
       </c>
       <c r="F380" s="18">
         <v>35112</v>
@@ -9598,13 +9592,13 @@
         <v>8</v>
       </c>
       <c r="C381" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D381" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E381" s="16" t="s">
         <v>66</v>
-      </c>
-      <c r="D381" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E381" s="16" t="s">
-        <v>40</v>
       </c>
       <c r="F381" s="18">
         <v>35112</v>
@@ -9621,13 +9615,13 @@
         <v>8</v>
       </c>
       <c r="C382" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D382" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E382" s="16" t="s">
         <v>66</v>
-      </c>
-      <c r="D382" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E382" s="16" t="s">
-        <v>41</v>
       </c>
       <c r="F382" s="18">
         <v>35112</v>
@@ -9644,13 +9638,13 @@
         <v>8</v>
       </c>
       <c r="C383" s="16" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="D383" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E383" s="16" t="s">
         <v>67</v>
-      </c>
-      <c r="E383" s="16" t="s">
-        <v>42</v>
       </c>
       <c r="F383" s="18">
         <v>35112</v>
@@ -9667,13 +9661,13 @@
         <v>8</v>
       </c>
       <c r="C384" s="16" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D384" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E384" s="16" t="s">
         <v>67</v>
-      </c>
-      <c r="E384" s="16" t="s">
-        <v>43</v>
       </c>
       <c r="F384" s="18">
         <v>35112</v>
@@ -9690,13 +9684,13 @@
         <v>8</v>
       </c>
       <c r="C385" s="16" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="D385" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E385" s="16" t="s">
         <v>67</v>
-      </c>
-      <c r="E385" s="16" t="s">
-        <v>44</v>
       </c>
       <c r="F385" s="18">
         <v>35112</v>
@@ -9713,13 +9707,13 @@
         <v>8</v>
       </c>
       <c r="C386" s="16" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="D386" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E386" s="16" t="s">
         <v>67</v>
-      </c>
-      <c r="E386" s="16" t="s">
-        <v>45</v>
       </c>
       <c r="F386" s="18">
         <v>35112</v>
@@ -9736,16 +9730,16 @@
         <v>8</v>
       </c>
       <c r="C387" s="16" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="D387" s="17" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="E387" s="16" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="F387" s="18">
-        <v>32771</v>
+        <v>35112</v>
       </c>
       <c r="G387" s="18">
         <v>877803</v>
@@ -9759,13 +9753,13 @@
         <v>8</v>
       </c>
       <c r="C388" s="16" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="D388" s="17" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="E388" s="16" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="F388" s="18">
         <v>35112</v>
@@ -9782,13 +9776,13 @@
         <v>8</v>
       </c>
       <c r="C389" s="16" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="D389" s="17" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="E389" s="16" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="F389" s="18">
         <v>35112</v>
@@ -9805,13 +9799,13 @@
         <v>8</v>
       </c>
       <c r="C390" s="16" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="D390" s="17" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="E390" s="16" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="F390" s="18">
         <v>35112</v>
@@ -9828,13 +9822,13 @@
         <v>8</v>
       </c>
       <c r="C391" s="16" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="D391" s="17" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="E391" s="16" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="F391" s="18">
         <v>35112</v>
@@ -9851,13 +9845,13 @@
         <v>8</v>
       </c>
       <c r="C392" s="16" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="D392" s="17" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="E392" s="16" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="F392" s="18">
         <v>35112</v>
@@ -9874,13 +9868,13 @@
         <v>8</v>
       </c>
       <c r="C393" s="16" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="D393" s="17" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="E393" s="16" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="F393" s="18">
         <v>35112</v>
@@ -9897,13 +9891,13 @@
         <v>8</v>
       </c>
       <c r="C394" s="16" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="D394" s="17" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="E394" s="16" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="F394" s="18">
         <v>35112</v>
@@ -9920,13 +9914,13 @@
         <v>8</v>
       </c>
       <c r="C395" s="16" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D395" s="17" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="E395" s="16" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="F395" s="18">
         <v>35112</v>
@@ -9943,13 +9937,13 @@
         <v>8</v>
       </c>
       <c r="C396" s="16" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="D396" s="17" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="E396" s="16" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="F396" s="18">
         <v>35112</v>
@@ -9966,13 +9960,13 @@
         <v>8</v>
       </c>
       <c r="C397" s="16" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="D397" s="17" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="E397" s="16" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="F397" s="18">
         <v>35112</v>
@@ -9989,13 +9983,13 @@
         <v>8</v>
       </c>
       <c r="C398" s="16" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="D398" s="17" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="E398" s="16" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="F398" s="18">
         <v>35112</v>
@@ -10012,13 +10006,13 @@
         <v>8</v>
       </c>
       <c r="C399" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D399" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E399" s="16" t="s">
         <v>68</v>
-      </c>
-      <c r="D399" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E399" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="F399" s="18">
         <v>35112</v>
@@ -10035,13 +10029,13 @@
         <v>8</v>
       </c>
       <c r="C400" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D400" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E400" s="16" t="s">
         <v>68</v>
-      </c>
-      <c r="D400" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E400" s="16" t="s">
-        <v>24</v>
       </c>
       <c r="F400" s="18">
         <v>35112</v>
@@ -10058,13 +10052,13 @@
         <v>8</v>
       </c>
       <c r="C401" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D401" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E401" s="16" t="s">
         <v>68</v>
-      </c>
-      <c r="D401" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E401" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="F401" s="18">
         <v>35112</v>
@@ -10081,13 +10075,13 @@
         <v>8</v>
       </c>
       <c r="C402" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D402" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E402" s="16" t="s">
         <v>68</v>
-      </c>
-      <c r="D402" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E402" s="16" t="s">
-        <v>26</v>
       </c>
       <c r="F402" s="18">
         <v>35112</v>
@@ -10104,13 +10098,13 @@
         <v>8</v>
       </c>
       <c r="C403" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D403" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E403" s="16" t="s">
         <v>68</v>
-      </c>
-      <c r="D403" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E403" s="16" t="s">
-        <v>27</v>
       </c>
       <c r="F403" s="18">
         <v>35112</v>
@@ -10127,13 +10121,13 @@
         <v>8</v>
       </c>
       <c r="C404" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D404" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E404" s="16" t="s">
         <v>68</v>
-      </c>
-      <c r="D404" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E404" s="16" t="s">
-        <v>28</v>
       </c>
       <c r="F404" s="18">
         <v>35112</v>
@@ -10150,13 +10144,13 @@
         <v>8</v>
       </c>
       <c r="C405" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D405" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E405" s="16" t="s">
         <v>68</v>
-      </c>
-      <c r="D405" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E405" s="16" t="s">
-        <v>29</v>
       </c>
       <c r="F405" s="18">
         <v>35112</v>
@@ -10173,13 +10167,13 @@
         <v>8</v>
       </c>
       <c r="C406" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D406" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E406" s="16" t="s">
         <v>68</v>
-      </c>
-      <c r="D406" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E406" s="16" t="s">
-        <v>30</v>
       </c>
       <c r="F406" s="18">
         <v>35112</v>
@@ -10196,13 +10190,13 @@
         <v>8</v>
       </c>
       <c r="C407" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D407" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E407" s="16" t="s">
         <v>68</v>
-      </c>
-      <c r="D407" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E407" s="16" t="s">
-        <v>31</v>
       </c>
       <c r="F407" s="18">
         <v>35112</v>
@@ -10219,13 +10213,13 @@
         <v>8</v>
       </c>
       <c r="C408" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D408" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E408" s="16" t="s">
         <v>68</v>
-      </c>
-      <c r="D408" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E408" s="16" t="s">
-        <v>32</v>
       </c>
       <c r="F408" s="18">
         <v>35112</v>
@@ -10242,13 +10236,13 @@
         <v>8</v>
       </c>
       <c r="C409" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D409" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E409" s="16" t="s">
         <v>68</v>
-      </c>
-      <c r="D409" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E409" s="16" t="s">
-        <v>33</v>
       </c>
       <c r="F409" s="18">
         <v>35112</v>
@@ -10265,13 +10259,13 @@
         <v>8</v>
       </c>
       <c r="C410" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D410" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E410" s="16" t="s">
         <v>68</v>
-      </c>
-      <c r="D410" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E410" s="16" t="s">
-        <v>34</v>
       </c>
       <c r="F410" s="18">
         <v>35112</v>
@@ -10288,13 +10282,13 @@
         <v>8</v>
       </c>
       <c r="C411" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D411" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E411" s="16" t="s">
         <v>68</v>
-      </c>
-      <c r="D411" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E411" s="16" t="s">
-        <v>35</v>
       </c>
       <c r="F411" s="18">
         <v>35112</v>
@@ -10311,13 +10305,13 @@
         <v>8</v>
       </c>
       <c r="C412" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D412" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E412" s="16" t="s">
         <v>68</v>
-      </c>
-      <c r="D412" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E412" s="16" t="s">
-        <v>36</v>
       </c>
       <c r="F412" s="18">
         <v>35112</v>
@@ -10334,13 +10328,13 @@
         <v>8</v>
       </c>
       <c r="C413" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D413" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E413" s="16" t="s">
         <v>68</v>
-      </c>
-      <c r="D413" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E413" s="16" t="s">
-        <v>37</v>
       </c>
       <c r="F413" s="18">
         <v>35112</v>
@@ -10357,13 +10351,13 @@
         <v>8</v>
       </c>
       <c r="C414" s="16" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="D414" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E414" s="16" t="s">
         <v>69</v>
-      </c>
-      <c r="E414" s="16" t="s">
-        <v>40</v>
       </c>
       <c r="F414" s="18">
         <v>35112</v>
@@ -10380,13 +10374,13 @@
         <v>8</v>
       </c>
       <c r="C415" s="16" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="D415" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E415" s="16" t="s">
         <v>69</v>
-      </c>
-      <c r="E415" s="16" t="s">
-        <v>41</v>
       </c>
       <c r="F415" s="18">
         <v>35112</v>
@@ -10403,13 +10397,13 @@
         <v>8</v>
       </c>
       <c r="C416" s="16" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="D416" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E416" s="16" t="s">
         <v>69</v>
-      </c>
-      <c r="E416" s="16" t="s">
-        <v>42</v>
       </c>
       <c r="F416" s="18">
         <v>35112</v>
@@ -10426,13 +10420,13 @@
         <v>8</v>
       </c>
       <c r="C417" s="16" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="D417" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E417" s="16" t="s">
         <v>69</v>
-      </c>
-      <c r="E417" s="16" t="s">
-        <v>43</v>
       </c>
       <c r="F417" s="18">
         <v>35112</v>
@@ -10449,13 +10443,13 @@
         <v>8</v>
       </c>
       <c r="C418" s="16" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="D418" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E418" s="16" t="s">
         <v>69</v>
-      </c>
-      <c r="E418" s="16" t="s">
-        <v>44</v>
       </c>
       <c r="F418" s="18">
         <v>35112</v>
@@ -10472,13 +10466,13 @@
         <v>8</v>
       </c>
       <c r="C419" s="16" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="D419" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E419" s="16" t="s">
         <v>69</v>
-      </c>
-      <c r="E419" s="16" t="s">
-        <v>45</v>
       </c>
       <c r="F419" s="18">
         <v>35112</v>
@@ -10495,16 +10489,16 @@
         <v>8</v>
       </c>
       <c r="C420" s="16" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="D420" s="17" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="E420" s="16" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="F420" s="18">
-        <v>32771</v>
+        <v>35112</v>
       </c>
       <c r="G420" s="18">
         <v>877803</v>
@@ -10518,13 +10512,13 @@
         <v>8</v>
       </c>
       <c r="C421" s="16" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="D421" s="17" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="E421" s="16" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="F421" s="18">
         <v>35112</v>
@@ -10541,13 +10535,13 @@
         <v>8</v>
       </c>
       <c r="C422" s="16" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="D422" s="17" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="E422" s="16" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="F422" s="18">
         <v>35112</v>
@@ -10564,13 +10558,13 @@
         <v>8</v>
       </c>
       <c r="C423" s="16" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="D423" s="17" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="E423" s="16" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="F423" s="18">
         <v>35112</v>
@@ -10587,13 +10581,13 @@
         <v>8</v>
       </c>
       <c r="C424" s="16" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="D424" s="17" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="E424" s="16" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="F424" s="18">
         <v>35112</v>
@@ -10610,13 +10604,13 @@
         <v>8</v>
       </c>
       <c r="C425" s="16" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="D425" s="17" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="E425" s="16" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="F425" s="18">
         <v>35112</v>
@@ -10633,13 +10627,13 @@
         <v>8</v>
       </c>
       <c r="C426" s="16" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="D426" s="17" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="E426" s="16" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="F426" s="18">
         <v>35112</v>
@@ -10656,13 +10650,13 @@
         <v>8</v>
       </c>
       <c r="C427" s="16" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="D427" s="17" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="E427" s="16" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="F427" s="18">
         <v>35112</v>
@@ -10679,13 +10673,13 @@
         <v>8</v>
       </c>
       <c r="C428" s="16" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="D428" s="17" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="E428" s="16" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="F428" s="18">
         <v>35112</v>
@@ -10702,13 +10696,13 @@
         <v>8</v>
       </c>
       <c r="C429" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D429" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E429" s="16" t="s">
         <v>70</v>
-      </c>
-      <c r="D429" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E429" s="16" t="s">
-        <v>20</v>
       </c>
       <c r="F429" s="18">
         <v>35112</v>
@@ -10725,13 +10719,13 @@
         <v>8</v>
       </c>
       <c r="C430" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D430" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E430" s="16" t="s">
         <v>70</v>
-      </c>
-      <c r="D430" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E430" s="16" t="s">
-        <v>21</v>
       </c>
       <c r="F430" s="18">
         <v>35112</v>
@@ -10748,13 +10742,13 @@
         <v>8</v>
       </c>
       <c r="C431" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D431" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E431" s="16" t="s">
         <v>70</v>
-      </c>
-      <c r="D431" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E431" s="16" t="s">
-        <v>22</v>
       </c>
       <c r="F431" s="18">
         <v>35112</v>
@@ -10771,13 +10765,13 @@
         <v>8</v>
       </c>
       <c r="C432" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D432" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E432" s="16" t="s">
         <v>70</v>
-      </c>
-      <c r="D432" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E432" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="F432" s="18">
         <v>35112</v>
@@ -10794,13 +10788,13 @@
         <v>8</v>
       </c>
       <c r="C433" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D433" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E433" s="16" t="s">
         <v>70</v>
-      </c>
-      <c r="D433" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E433" s="16" t="s">
-        <v>24</v>
       </c>
       <c r="F433" s="18">
         <v>35112</v>
@@ -10817,13 +10811,13 @@
         <v>8</v>
       </c>
       <c r="C434" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D434" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E434" s="16" t="s">
         <v>70</v>
-      </c>
-      <c r="D434" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E434" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="F434" s="18">
         <v>35112</v>
@@ -10840,13 +10834,13 @@
         <v>8</v>
       </c>
       <c r="C435" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D435" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E435" s="16" t="s">
         <v>70</v>
-      </c>
-      <c r="D435" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E435" s="16" t="s">
-        <v>26</v>
       </c>
       <c r="F435" s="18">
         <v>35112</v>
@@ -10863,13 +10857,13 @@
         <v>8</v>
       </c>
       <c r="C436" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D436" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E436" s="16" t="s">
         <v>70</v>
-      </c>
-      <c r="D436" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E436" s="16" t="s">
-        <v>27</v>
       </c>
       <c r="F436" s="18">
         <v>35112</v>
@@ -10886,13 +10880,13 @@
         <v>8</v>
       </c>
       <c r="C437" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D437" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E437" s="16" t="s">
         <v>70</v>
-      </c>
-      <c r="D437" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E437" s="16" t="s">
-        <v>28</v>
       </c>
       <c r="F437" s="18">
         <v>35112</v>
@@ -10909,13 +10903,13 @@
         <v>8</v>
       </c>
       <c r="C438" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D438" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E438" s="16" t="s">
         <v>70</v>
-      </c>
-      <c r="D438" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E438" s="16" t="s">
-        <v>29</v>
       </c>
       <c r="F438" s="18">
         <v>35112</v>
@@ -10932,13 +10926,13 @@
         <v>8</v>
       </c>
       <c r="C439" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D439" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E439" s="16" t="s">
         <v>70</v>
-      </c>
-      <c r="D439" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E439" s="16" t="s">
-        <v>30</v>
       </c>
       <c r="F439" s="18">
         <v>35112</v>
@@ -10955,13 +10949,13 @@
         <v>8</v>
       </c>
       <c r="C440" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D440" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E440" s="16" t="s">
         <v>70</v>
-      </c>
-      <c r="D440" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E440" s="16" t="s">
-        <v>31</v>
       </c>
       <c r="F440" s="18">
         <v>35112</v>
@@ -10978,13 +10972,13 @@
         <v>8</v>
       </c>
       <c r="C441" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D441" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E441" s="16" t="s">
         <v>70</v>
-      </c>
-      <c r="D441" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E441" s="16" t="s">
-        <v>32</v>
       </c>
       <c r="F441" s="18">
         <v>35112</v>
@@ -11001,13 +10995,13 @@
         <v>8</v>
       </c>
       <c r="C442" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D442" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E442" s="16" t="s">
         <v>70</v>
-      </c>
-      <c r="D442" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E442" s="16" t="s">
-        <v>33</v>
       </c>
       <c r="F442" s="18">
         <v>35112</v>
@@ -11024,13 +11018,13 @@
         <v>8</v>
       </c>
       <c r="C443" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D443" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E443" s="16" t="s">
         <v>70</v>
-      </c>
-      <c r="D443" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E443" s="16" t="s">
-        <v>34</v>
       </c>
       <c r="F443" s="18">
         <v>35112</v>
@@ -11047,13 +11041,13 @@
         <v>8</v>
       </c>
       <c r="C444" s="16" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="D444" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E444" s="16" t="s">
         <v>71</v>
-      </c>
-      <c r="E444" s="16" t="s">
-        <v>35</v>
       </c>
       <c r="F444" s="18">
         <v>35112</v>
@@ -11070,13 +11064,13 @@
         <v>8</v>
       </c>
       <c r="C445" s="16" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="D445" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E445" s="16" t="s">
         <v>71</v>
-      </c>
-      <c r="E445" s="16" t="s">
-        <v>36</v>
       </c>
       <c r="F445" s="18">
         <v>35112</v>
@@ -11093,13 +11087,13 @@
         <v>8</v>
       </c>
       <c r="C446" s="16" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="D446" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E446" s="16" t="s">
         <v>71</v>
-      </c>
-      <c r="E446" s="16" t="s">
-        <v>37</v>
       </c>
       <c r="F446" s="18">
         <v>35112</v>
@@ -11116,13 +11110,13 @@
         <v>8</v>
       </c>
       <c r="C447" s="16" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="D447" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E447" s="16" t="s">
         <v>71</v>
-      </c>
-      <c r="E447" s="16" t="s">
-        <v>40</v>
       </c>
       <c r="F447" s="18">
         <v>35112</v>
@@ -11139,13 +11133,13 @@
         <v>8</v>
       </c>
       <c r="C448" s="16" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="D448" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E448" s="16" t="s">
         <v>71</v>
-      </c>
-      <c r="E448" s="16" t="s">
-        <v>41</v>
       </c>
       <c r="F448" s="18">
         <v>35112</v>
@@ -11162,13 +11156,13 @@
         <v>8</v>
       </c>
       <c r="C449" s="16" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="D449" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E449" s="16" t="s">
         <v>71</v>
-      </c>
-      <c r="E449" s="16" t="s">
-        <v>42</v>
       </c>
       <c r="F449" s="18">
         <v>35112</v>
@@ -11185,13 +11179,13 @@
         <v>8</v>
       </c>
       <c r="C450" s="16" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="D450" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E450" s="16" t="s">
         <v>71</v>
-      </c>
-      <c r="E450" s="16" t="s">
-        <v>43</v>
       </c>
       <c r="F450" s="18">
         <v>35112</v>
@@ -11208,13 +11202,13 @@
         <v>8</v>
       </c>
       <c r="C451" s="16" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="D451" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E451" s="16" t="s">
         <v>71</v>
-      </c>
-      <c r="E451" s="16" t="s">
-        <v>44</v>
       </c>
       <c r="F451" s="18">
         <v>35112</v>
@@ -11231,13 +11225,13 @@
         <v>8</v>
       </c>
       <c r="C452" s="16" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="D452" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E452" s="16" t="s">
         <v>71</v>
-      </c>
-      <c r="E452" s="16" t="s">
-        <v>45</v>
       </c>
       <c r="F452" s="18">
         <v>35112</v>
@@ -11254,16 +11248,16 @@
         <v>8</v>
       </c>
       <c r="C453" s="16" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="D453" s="17" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="E453" s="16" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="F453" s="18">
-        <v>32771</v>
+        <v>35112</v>
       </c>
       <c r="G453" s="18">
         <v>877803</v>
@@ -11277,13 +11271,13 @@
         <v>8</v>
       </c>
       <c r="C454" s="16" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="D454" s="17" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="E454" s="16" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="F454" s="18">
         <v>35112</v>
@@ -11300,13 +11294,13 @@
         <v>8</v>
       </c>
       <c r="C455" s="16" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="D455" s="17" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="E455" s="16" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="F455" s="18">
         <v>35112</v>
@@ -11323,13 +11317,13 @@
         <v>8</v>
       </c>
       <c r="C456" s="16" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="D456" s="17" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E456" s="16" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="F456" s="18">
         <v>35112</v>
@@ -11346,13 +11340,13 @@
         <v>8</v>
       </c>
       <c r="C457" s="16" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="D457" s="17" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="E457" s="16" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="F457" s="18">
         <v>35112</v>
@@ -11369,13 +11363,13 @@
         <v>8</v>
       </c>
       <c r="C458" s="16" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="D458" s="17" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="E458" s="16" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="F458" s="18">
         <v>35112</v>
@@ -11392,13 +11386,13 @@
         <v>8</v>
       </c>
       <c r="C459" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D459" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E459" s="16" t="s">
         <v>72</v>
-      </c>
-      <c r="D459" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E459" s="16" t="s">
-        <v>17</v>
       </c>
       <c r="F459" s="18">
         <v>35112</v>
@@ -11415,13 +11409,13 @@
         <v>8</v>
       </c>
       <c r="C460" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D460" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E460" s="16" t="s">
         <v>72</v>
-      </c>
-      <c r="D460" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E460" s="16" t="s">
-        <v>18</v>
       </c>
       <c r="F460" s="18">
         <v>35112</v>
@@ -11438,13 +11432,13 @@
         <v>8</v>
       </c>
       <c r="C461" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D461" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E461" s="16" t="s">
         <v>72</v>
-      </c>
-      <c r="D461" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E461" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="F461" s="18">
         <v>35112</v>
@@ -11461,13 +11455,13 @@
         <v>8</v>
       </c>
       <c r="C462" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D462" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E462" s="16" t="s">
         <v>72</v>
-      </c>
-      <c r="D462" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E462" s="16" t="s">
-        <v>20</v>
       </c>
       <c r="F462" s="18">
         <v>35112</v>
@@ -11484,13 +11478,13 @@
         <v>8</v>
       </c>
       <c r="C463" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D463" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E463" s="16" t="s">
         <v>72</v>
-      </c>
-      <c r="D463" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E463" s="16" t="s">
-        <v>21</v>
       </c>
       <c r="F463" s="18">
         <v>35112</v>
@@ -11507,13 +11501,13 @@
         <v>8</v>
       </c>
       <c r="C464" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D464" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E464" s="16" t="s">
         <v>72</v>
-      </c>
-      <c r="D464" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E464" s="16" t="s">
-        <v>22</v>
       </c>
       <c r="F464" s="18">
         <v>35112</v>
@@ -11530,13 +11524,13 @@
         <v>8</v>
       </c>
       <c r="C465" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D465" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E465" s="16" t="s">
         <v>72</v>
-      </c>
-      <c r="D465" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E465" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="F465" s="18">
         <v>35112</v>
@@ -11553,13 +11547,13 @@
         <v>8</v>
       </c>
       <c r="C466" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D466" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E466" s="16" t="s">
         <v>72</v>
-      </c>
-      <c r="D466" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E466" s="16" t="s">
-        <v>24</v>
       </c>
       <c r="F466" s="18">
         <v>35112</v>
@@ -11576,13 +11570,13 @@
         <v>8</v>
       </c>
       <c r="C467" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D467" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E467" s="16" t="s">
         <v>72</v>
-      </c>
-      <c r="D467" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E467" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="F467" s="18">
         <v>35112</v>
@@ -11599,13 +11593,13 @@
         <v>8</v>
       </c>
       <c r="C468" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D468" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E468" s="16" t="s">
         <v>72</v>
-      </c>
-      <c r="D468" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E468" s="16" t="s">
-        <v>26</v>
       </c>
       <c r="F468" s="18">
         <v>35112</v>
@@ -11622,13 +11616,13 @@
         <v>8</v>
       </c>
       <c r="C469" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D469" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E469" s="16" t="s">
         <v>72</v>
-      </c>
-      <c r="D469" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E469" s="16" t="s">
-        <v>27</v>
       </c>
       <c r="F469" s="18">
         <v>35112</v>
@@ -11645,13 +11639,13 @@
         <v>8</v>
       </c>
       <c r="C470" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D470" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E470" s="16" t="s">
         <v>72</v>
-      </c>
-      <c r="D470" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E470" s="16" t="s">
-        <v>28</v>
       </c>
       <c r="F470" s="18">
         <v>35112</v>
@@ -11668,13 +11662,13 @@
         <v>8</v>
       </c>
       <c r="C471" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D471" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E471" s="16" t="s">
         <v>72</v>
-      </c>
-      <c r="D471" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E471" s="16" t="s">
-        <v>29</v>
       </c>
       <c r="F471" s="18">
         <v>35112</v>
@@ -11691,13 +11685,13 @@
         <v>8</v>
       </c>
       <c r="C472" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D472" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E472" s="16" t="s">
         <v>72</v>
-      </c>
-      <c r="D472" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E472" s="16" t="s">
-        <v>30</v>
       </c>
       <c r="F472" s="18">
         <v>35112</v>
@@ -11714,13 +11708,13 @@
         <v>8</v>
       </c>
       <c r="C473" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D473" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E473" s="16" t="s">
         <v>72</v>
-      </c>
-      <c r="D473" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E473" s="16" t="s">
-        <v>31</v>
       </c>
       <c r="F473" s="18">
         <v>35112</v>
@@ -11737,13 +11731,13 @@
         <v>8</v>
       </c>
       <c r="C474" s="16" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="D474" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E474" s="16" t="s">
         <v>73</v>
-      </c>
-      <c r="E474" s="16" t="s">
-        <v>32</v>
       </c>
       <c r="F474" s="18">
         <v>35112</v>
@@ -11760,13 +11754,13 @@
         <v>8</v>
       </c>
       <c r="C475" s="16" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="D475" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E475" s="16" t="s">
         <v>73</v>
-      </c>
-      <c r="E475" s="16" t="s">
-        <v>33</v>
       </c>
       <c r="F475" s="18">
         <v>35112</v>
@@ -11783,13 +11777,13 @@
         <v>8</v>
       </c>
       <c r="C476" s="16" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="D476" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E476" s="16" t="s">
         <v>73</v>
-      </c>
-      <c r="E476" s="16" t="s">
-        <v>34</v>
       </c>
       <c r="F476" s="18">
         <v>35112</v>
@@ -11806,13 +11800,13 @@
         <v>8</v>
       </c>
       <c r="C477" s="16" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="D477" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E477" s="16" t="s">
         <v>73</v>
-      </c>
-      <c r="E477" s="16" t="s">
-        <v>35</v>
       </c>
       <c r="F477" s="18">
         <v>35112</v>
@@ -11829,13 +11823,13 @@
         <v>8</v>
       </c>
       <c r="C478" s="16" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="D478" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E478" s="16" t="s">
         <v>73</v>
-      </c>
-      <c r="E478" s="16" t="s">
-        <v>36</v>
       </c>
       <c r="F478" s="18">
         <v>35112</v>
@@ -11852,13 +11846,13 @@
         <v>8</v>
       </c>
       <c r="C479" s="16" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="D479" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E479" s="16" t="s">
         <v>73</v>
-      </c>
-      <c r="E479" s="16" t="s">
-        <v>37</v>
       </c>
       <c r="F479" s="18">
         <v>35112</v>
@@ -11875,13 +11869,13 @@
         <v>8</v>
       </c>
       <c r="C480" s="16" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="D480" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E480" s="16" t="s">
         <v>73</v>
-      </c>
-      <c r="E480" s="16" t="s">
-        <v>40</v>
       </c>
       <c r="F480" s="18">
         <v>35112</v>
@@ -11898,13 +11892,13 @@
         <v>8</v>
       </c>
       <c r="C481" s="16" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="D481" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E481" s="16" t="s">
         <v>73</v>
-      </c>
-      <c r="E481" s="16" t="s">
-        <v>41</v>
       </c>
       <c r="F481" s="18">
         <v>35112</v>
@@ -11921,13 +11915,13 @@
         <v>8</v>
       </c>
       <c r="C482" s="16" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="D482" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E482" s="16" t="s">
         <v>73</v>
-      </c>
-      <c r="E482" s="16" t="s">
-        <v>42</v>
       </c>
       <c r="F482" s="18">
         <v>35112</v>
@@ -11944,13 +11938,13 @@
         <v>8</v>
       </c>
       <c r="C483" s="16" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="D483" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E483" s="16" t="s">
         <v>73</v>
-      </c>
-      <c r="E483" s="16" t="s">
-        <v>43</v>
       </c>
       <c r="F483" s="18">
         <v>35112</v>
@@ -11967,13 +11961,13 @@
         <v>8</v>
       </c>
       <c r="C484" s="16" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="D484" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E484" s="16" t="s">
         <v>73</v>
-      </c>
-      <c r="E484" s="16" t="s">
-        <v>44</v>
       </c>
       <c r="F484" s="18">
         <v>35112</v>
@@ -11990,13 +11984,13 @@
         <v>8</v>
       </c>
       <c r="C485" s="16" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="D485" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E485" s="16" t="s">
         <v>73</v>
-      </c>
-      <c r="E485" s="16" t="s">
-        <v>45</v>
       </c>
       <c r="F485" s="18">
         <v>35112</v>
@@ -12013,16 +12007,16 @@
         <v>8</v>
       </c>
       <c r="C486" s="16" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="D486" s="17" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="E486" s="16" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="F486" s="18">
-        <v>32771</v>
+        <v>35112</v>
       </c>
       <c r="G486" s="18">
         <v>877803</v>
@@ -12036,13 +12030,13 @@
         <v>8</v>
       </c>
       <c r="C487" s="16" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="D487" s="17" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="E487" s="16" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="F487" s="18">
         <v>35112</v>
@@ -12059,13 +12053,13 @@
         <v>8</v>
       </c>
       <c r="C488" s="16" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="D488" s="17" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="E488" s="16" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="F488" s="18">
         <v>35112</v>
@@ -12082,13 +12076,13 @@
         <v>8</v>
       </c>
       <c r="C489" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D489" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E489" s="16" t="s">
         <v>74</v>
-      </c>
-      <c r="D489" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E489" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F489" s="18">
         <v>35112</v>
@@ -12105,13 +12099,13 @@
         <v>8</v>
       </c>
       <c r="C490" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D490" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E490" s="16" t="s">
         <v>74</v>
-      </c>
-      <c r="D490" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E490" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F490" s="18">
         <v>35112</v>
@@ -12128,13 +12122,13 @@
         <v>8</v>
       </c>
       <c r="C491" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D491" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E491" s="16" t="s">
         <v>74</v>
-      </c>
-      <c r="D491" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E491" s="16" t="s">
-        <v>16</v>
       </c>
       <c r="F491" s="18">
         <v>35112</v>
@@ -12151,13 +12145,13 @@
         <v>8</v>
       </c>
       <c r="C492" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D492" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E492" s="16" t="s">
         <v>74</v>
-      </c>
-      <c r="D492" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E492" s="16" t="s">
-        <v>17</v>
       </c>
       <c r="F492" s="18">
         <v>35112</v>
@@ -12174,13 +12168,13 @@
         <v>8</v>
       </c>
       <c r="C493" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D493" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E493" s="16" t="s">
         <v>74</v>
-      </c>
-      <c r="D493" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E493" s="16" t="s">
-        <v>18</v>
       </c>
       <c r="F493" s="18">
         <v>35112</v>
@@ -12197,13 +12191,13 @@
         <v>8</v>
       </c>
       <c r="C494" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D494" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E494" s="16" t="s">
         <v>74</v>
-      </c>
-      <c r="D494" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E494" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="F494" s="18">
         <v>35112</v>
@@ -12220,13 +12214,13 @@
         <v>8</v>
       </c>
       <c r="C495" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D495" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E495" s="16" t="s">
         <v>74</v>
-      </c>
-      <c r="D495" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E495" s="16" t="s">
-        <v>20</v>
       </c>
       <c r="F495" s="18">
         <v>35112</v>
@@ -12243,13 +12237,13 @@
         <v>8</v>
       </c>
       <c r="C496" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D496" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E496" s="16" t="s">
         <v>74</v>
-      </c>
-      <c r="D496" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E496" s="16" t="s">
-        <v>21</v>
       </c>
       <c r="F496" s="18">
         <v>35112</v>
@@ -12266,13 +12260,13 @@
         <v>8</v>
       </c>
       <c r="C497" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D497" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E497" s="16" t="s">
         <v>74</v>
-      </c>
-      <c r="D497" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E497" s="16" t="s">
-        <v>22</v>
       </c>
       <c r="F497" s="18">
         <v>35112</v>
@@ -12289,13 +12283,13 @@
         <v>8</v>
       </c>
       <c r="C498" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D498" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E498" s="16" t="s">
         <v>74</v>
-      </c>
-      <c r="D498" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E498" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="F498" s="18">
         <v>35112</v>
@@ -12312,13 +12306,13 @@
         <v>8</v>
       </c>
       <c r="C499" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D499" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E499" s="16" t="s">
         <v>74</v>
-      </c>
-      <c r="D499" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E499" s="16" t="s">
-        <v>24</v>
       </c>
       <c r="F499" s="18">
         <v>35112</v>
@@ -12335,13 +12329,13 @@
         <v>8</v>
       </c>
       <c r="C500" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D500" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E500" s="16" t="s">
         <v>74</v>
-      </c>
-      <c r="D500" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E500" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="F500" s="18">
         <v>35112</v>
@@ -12358,13 +12352,13 @@
         <v>8</v>
       </c>
       <c r="C501" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D501" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E501" s="16" t="s">
         <v>74</v>
-      </c>
-      <c r="D501" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E501" s="16" t="s">
-        <v>26</v>
       </c>
       <c r="F501" s="18">
         <v>35112</v>
@@ -12381,13 +12375,13 @@
         <v>8</v>
       </c>
       <c r="C502" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D502" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E502" s="16" t="s">
         <v>74</v>
-      </c>
-      <c r="D502" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E502" s="16" t="s">
-        <v>27</v>
       </c>
       <c r="F502" s="18">
         <v>35112</v>
@@ -12404,13 +12398,13 @@
         <v>8</v>
       </c>
       <c r="C503" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D503" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E503" s="16" t="s">
         <v>74</v>
-      </c>
-      <c r="D503" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E503" s="16" t="s">
-        <v>28</v>
       </c>
       <c r="F503" s="18">
         <v>35112</v>
@@ -12427,16 +12421,16 @@
         <v>8</v>
       </c>
       <c r="C504" s="16" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="D504" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E504" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="E504" s="16" t="s">
-        <v>29</v>
-      </c>
       <c r="F504" s="18">
-        <v>35112</v>
+        <v>32771</v>
       </c>
       <c r="G504" s="18">
         <v>877803</v>
@@ -12450,16 +12444,16 @@
         <v>8</v>
       </c>
       <c r="C505" s="16" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="D505" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E505" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="E505" s="16" t="s">
-        <v>30</v>
-      </c>
       <c r="F505" s="18">
-        <v>35112</v>
+        <v>32771</v>
       </c>
       <c r="G505" s="18">
         <v>877803</v>
@@ -12473,16 +12467,16 @@
         <v>8</v>
       </c>
       <c r="C506" s="16" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="D506" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E506" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="E506" s="16" t="s">
-        <v>31</v>
-      </c>
       <c r="F506" s="18">
-        <v>35112</v>
+        <v>32771</v>
       </c>
       <c r="G506" s="18">
         <v>877803</v>
@@ -12496,16 +12490,16 @@
         <v>8</v>
       </c>
       <c r="C507" s="16" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="D507" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E507" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="E507" s="16" t="s">
-        <v>32</v>
-      </c>
       <c r="F507" s="18">
-        <v>35112</v>
+        <v>32771</v>
       </c>
       <c r="G507" s="18">
         <v>877803</v>
@@ -12519,16 +12513,16 @@
         <v>8</v>
       </c>
       <c r="C508" s="16" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="D508" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E508" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="E508" s="16" t="s">
-        <v>33</v>
-      </c>
       <c r="F508" s="18">
-        <v>35112</v>
+        <v>32771</v>
       </c>
       <c r="G508" s="18">
         <v>877803</v>
@@ -12542,16 +12536,16 @@
         <v>8</v>
       </c>
       <c r="C509" s="16" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="D509" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E509" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="E509" s="16" t="s">
-        <v>34</v>
-      </c>
       <c r="F509" s="18">
-        <v>35112</v>
+        <v>32771</v>
       </c>
       <c r="G509" s="18">
         <v>877803</v>
@@ -12565,16 +12559,16 @@
         <v>8</v>
       </c>
       <c r="C510" s="16" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="D510" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E510" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="E510" s="16" t="s">
-        <v>35</v>
-      </c>
       <c r="F510" s="18">
-        <v>35112</v>
+        <v>32771</v>
       </c>
       <c r="G510" s="18">
         <v>877803</v>
@@ -12588,16 +12582,16 @@
         <v>8</v>
       </c>
       <c r="C511" s="16" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="D511" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E511" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="E511" s="16" t="s">
-        <v>36</v>
-      </c>
       <c r="F511" s="18">
-        <v>35112</v>
+        <v>32771</v>
       </c>
       <c r="G511" s="18">
         <v>877803</v>
@@ -12611,16 +12605,16 @@
         <v>8</v>
       </c>
       <c r="C512" s="16" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="D512" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E512" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="E512" s="16" t="s">
-        <v>37</v>
-      </c>
       <c r="F512" s="18">
-        <v>35112</v>
+        <v>32771</v>
       </c>
       <c r="G512" s="18">
         <v>877803</v>
@@ -12634,16 +12628,16 @@
         <v>8</v>
       </c>
       <c r="C513" s="16" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="D513" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E513" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="E513" s="16" t="s">
-        <v>40</v>
-      </c>
       <c r="F513" s="18">
-        <v>35112</v>
+        <v>32771</v>
       </c>
       <c r="G513" s="18">
         <v>877803</v>
@@ -12657,16 +12651,16 @@
         <v>8</v>
       </c>
       <c r="C514" s="16" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="D514" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E514" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="E514" s="16" t="s">
-        <v>41</v>
-      </c>
       <c r="F514" s="18">
-        <v>35112</v>
+        <v>32771</v>
       </c>
       <c r="G514" s="18">
         <v>877803</v>
@@ -12680,16 +12674,16 @@
         <v>8</v>
       </c>
       <c r="C515" s="16" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="D515" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E515" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="E515" s="16" t="s">
-        <v>42</v>
-      </c>
       <c r="F515" s="18">
-        <v>35112</v>
+        <v>32771</v>
       </c>
       <c r="G515" s="18">
         <v>877803</v>
@@ -12703,16 +12697,16 @@
         <v>8</v>
       </c>
       <c r="C516" s="16" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="D516" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E516" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="E516" s="16" t="s">
-        <v>43</v>
-      </c>
       <c r="F516" s="18">
-        <v>35112</v>
+        <v>32771</v>
       </c>
       <c r="G516" s="18">
         <v>877803</v>
@@ -12726,16 +12720,16 @@
         <v>8</v>
       </c>
       <c r="C517" s="16" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="D517" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E517" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="E517" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="F517" s="18">
-        <v>35112</v>
+        <v>32771</v>
       </c>
       <c r="G517" s="18">
         <v>877803</v>
@@ -12745,148 +12739,56 @@
       <c r="J517" s="20"/>
     </row>
     <row r="518" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B518" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C518" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="D518" s="17" t="s">
+      <c r="B518" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C518" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D518" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E518" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="E518" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F518" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G518" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H518" s="19"/>
-      <c r="I518" s="19"/>
-      <c r="J518" s="20"/>
-    </row>
-    <row r="519" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B519" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C519" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="D519" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E519" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F519" s="18">
-        <v>37333</v>
-      </c>
-      <c r="G519" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H519" s="19"/>
-      <c r="I519" s="19"/>
-      <c r="J519" s="20"/>
-    </row>
-    <row r="520" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B520" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C520" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="D520" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E520" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F520" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G520" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H520" s="19"/>
-      <c r="I520" s="19"/>
-      <c r="J520" s="20"/>
-    </row>
-    <row r="521" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B521" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C521" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="D521" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E521" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F521" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G521" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H521" s="19"/>
-      <c r="I521" s="19"/>
-      <c r="J521" s="20"/>
-    </row>
-    <row r="522" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B522" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C522" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="D522" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="E522" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F522" s="24">
-        <v>40000</v>
-      </c>
-      <c r="G522" s="24">
-        <v>1000000</v>
-      </c>
-      <c r="H522" s="25"/>
-      <c r="I522" s="25"/>
-      <c r="J522" s="26"/>
-    </row>
-    <row r="527" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B527" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="C527" s="32"/>
-      <c r="H527" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I527" s="1"/>
-      <c r="J527" s="1"/>
-    </row>
-    <row r="528" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B528" s="32" t="s">
+      <c r="F518" s="24">
+        <v>32771</v>
+      </c>
+      <c r="G518" s="24">
+        <v>877803</v>
+      </c>
+      <c r="H518" s="25"/>
+      <c r="I518" s="25"/>
+      <c r="J518" s="26"/>
+    </row>
+    <row r="523" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B523" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C523" s="32"/>
+      <c r="H523" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I523" s="1"/>
+      <c r="J523" s="1"/>
+    </row>
+    <row r="524" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B524" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C524" s="32"/>
+      <c r="H524" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C528" s="32"/>
-      <c r="H528" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I528" s="1"/>
-      <c r="J528" s="1"/>
+      <c r="I524" s="1"/>
+      <c r="J524" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B528:C528"/>
-    <mergeCell ref="B527:C527"/>
-    <mergeCell ref="H528:J528"/>
-    <mergeCell ref="H527:J527"/>
+    <mergeCell ref="B524:C524"/>
+    <mergeCell ref="B523:C523"/>
+    <mergeCell ref="H524:J524"/>
+    <mergeCell ref="H523:J523"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
